--- a/assets/files/us_historical_probs_7_31_25.xlsx
+++ b/assets/files/us_historical_probs_7_31_25.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpiger/Library/CloudStorage/Dropbox/Work/WebSite/BusinessCycleDates/National/2025/July 31, 2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{DB54C03B-8D1D-CD46-9878-3D78B4069407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58119D4-CBB9-C847-BF40-1A5FEE5D6F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{F29DEA60-DB77-C34F-9642-BDB45CE5CF09}"/>
+    <workbookView xWindow="2200" yWindow="500" windowWidth="28040" windowHeight="17240" xr2:uid="{F29DEA60-DB77-C34F-9642-BDB45CE5CF09}"/>
   </bookViews>
   <sheets>
     <sheet name="us_historical_probs_7_31_25" sheetId="1" r:id="rId1"/>
@@ -501,10 +501,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -891,7 +890,7 @@
       <c r="A1" s="1">
         <v>24624</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1" s="2">
         <v>0.01</v>
       </c>
     </row>
@@ -899,7 +898,7 @@
       <c r="A2" s="1">
         <v>24654</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
@@ -907,7 +906,7 @@
       <c r="A3" s="1">
         <v>24685</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>0</v>
       </c>
     </row>
@@ -915,7 +914,7 @@
       <c r="A4" s="1">
         <v>24716</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -923,7 +922,7 @@
       <c r="A5" s="1">
         <v>24746</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>2E-3</v>
       </c>
     </row>
@@ -931,7 +930,7 @@
       <c r="A6" s="1">
         <v>24777</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>0</v>
       </c>
     </row>
@@ -939,7 +938,7 @@
       <c r="A7" s="1">
         <v>24807</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>0</v>
       </c>
     </row>
@@ -947,7 +946,7 @@
       <c r="A8" s="1">
         <v>24838</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
@@ -955,7 +954,7 @@
       <c r="A9" s="1">
         <v>24869</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -963,7 +962,7 @@
       <c r="A10" s="1">
         <v>24898</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>0</v>
       </c>
     </row>
@@ -971,7 +970,7 @@
       <c r="A11" s="1">
         <v>24929</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -979,7 +978,7 @@
       <c r="A12" s="1">
         <v>24959</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>0</v>
       </c>
     </row>
@@ -987,7 +986,7 @@
       <c r="A13" s="1">
         <v>24990</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>0</v>
       </c>
     </row>
@@ -995,7 +994,7 @@
       <c r="A14" s="1">
         <v>25020</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1003,7 +1002,7 @@
       <c r="A15" s="1">
         <v>25051</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1011,7 +1010,7 @@
       <c r="A16" s="1">
         <v>25082</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1019,7 +1018,7 @@
       <c r="A17" s="1">
         <v>25112</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1027,7 +1026,7 @@
       <c r="A18" s="1">
         <v>25143</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1035,7 +1034,7 @@
       <c r="A19" s="1">
         <v>25173</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -1043,7 +1042,7 @@
       <c r="A20" s="1">
         <v>25204</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1051,7 +1050,7 @@
       <c r="A21" s="1">
         <v>25235</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1059,7 +1058,7 @@
       <c r="A22" s="1">
         <v>25263</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -1067,7 +1066,7 @@
       <c r="A23" s="1">
         <v>25294</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -1075,7 +1074,7 @@
       <c r="A24" s="1">
         <v>25324</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -1083,7 +1082,7 @@
       <c r="A25" s="1">
         <v>25355</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -1091,7 +1090,7 @@
       <c r="A26" s="1">
         <v>25385</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>2E-3</v>
       </c>
     </row>
@@ -1099,7 +1098,7 @@
       <c r="A27" s="1">
         <v>25416</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
@@ -1107,7 +1106,7 @@
       <c r="A28" s="1">
         <v>25447</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>3.9E-2</v>
       </c>
     </row>
@@ -1115,7 +1114,7 @@
       <c r="A29" s="1">
         <v>25477</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
@@ -1123,7 +1122,7 @@
       <c r="A30" s="1">
         <v>25508</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>0.35399999999999998</v>
       </c>
     </row>
@@ -1131,7 +1130,7 @@
       <c r="A31" s="1">
         <v>25538</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>0.39100000000000001</v>
       </c>
     </row>
@@ -1139,7 +1138,7 @@
       <c r="A32" s="1">
         <v>25569</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>0.505</v>
       </c>
     </row>
@@ -1147,7 +1146,7 @@
       <c r="A33" s="1">
         <v>25600</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="2">
         <v>0.39100000000000001</v>
       </c>
     </row>
@@ -1155,7 +1154,7 @@
       <c r="A34" s="1">
         <v>25628</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="2">
         <v>0.39600000000000002</v>
       </c>
     </row>
@@ -1163,7 +1162,7 @@
       <c r="A35" s="1">
         <v>25659</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="2">
         <v>0.43</v>
       </c>
     </row>
@@ -1171,7 +1170,7 @@
       <c r="A36" s="1">
         <v>25689</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="2">
         <v>0.39800000000000002</v>
       </c>
     </row>
@@ -1179,7 +1178,7 @@
       <c r="A37" s="1">
         <v>25720</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="2">
         <v>0.379</v>
       </c>
     </row>
@@ -1187,7 +1186,7 @@
       <c r="A38" s="1">
         <v>25750</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="2">
         <v>0.38700000000000001</v>
       </c>
     </row>
@@ -1195,7 +1194,7 @@
       <c r="A39" s="1">
         <v>25781</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="2">
         <v>0.57099999999999995</v>
       </c>
     </row>
@@ -1203,7 +1202,7 @@
       <c r="A40" s="1">
         <v>25812</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="2">
         <v>0.77100000000000002</v>
       </c>
     </row>
@@ -1211,7 +1210,7 @@
       <c r="A41" s="1">
         <v>25842</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="2">
         <v>0.85599999999999998</v>
       </c>
     </row>
@@ -1219,7 +1218,7 @@
       <c r="A42" s="1">
         <v>25873</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="2">
         <v>0.31900000000000001</v>
       </c>
     </row>
@@ -1227,7 +1226,7 @@
       <c r="A43" s="1">
         <v>25903</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1235,7 +1234,7 @@
       <c r="A44" s="1">
         <v>25934</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1243,7 +1242,7 @@
       <c r="A45" s="1">
         <v>25965</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="2">
         <v>1.2E-2</v>
       </c>
     </row>
@@ -1251,7 +1250,7 @@
       <c r="A46" s="1">
         <v>25993</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
@@ -1259,7 +1258,7 @@
       <c r="A47" s="1">
         <v>26024</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -1267,7 +1266,7 @@
       <c r="A48" s="1">
         <v>26054</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -1275,7 +1274,7 @@
       <c r="A49" s="1">
         <v>26085</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -1283,7 +1282,7 @@
       <c r="A50" s="1">
         <v>26115</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
@@ -1291,7 +1290,7 @@
       <c r="A51" s="1">
         <v>26146</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -1299,7 +1298,7 @@
       <c r="A52" s="1">
         <v>26177</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1307,7 +1306,7 @@
       <c r="A53" s="1">
         <v>26207</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1315,7 +1314,7 @@
       <c r="A54" s="1">
         <v>26238</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1323,7 +1322,7 @@
       <c r="A55" s="1">
         <v>26268</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1331,7 +1330,7 @@
       <c r="A56" s="1">
         <v>26299</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1339,7 +1338,7 @@
       <c r="A57" s="1">
         <v>26330</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1347,7 +1346,7 @@
       <c r="A58" s="1">
         <v>26359</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1355,7 +1354,7 @@
       <c r="A59" s="1">
         <v>26390</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1363,7 +1362,7 @@
       <c r="A60" s="1">
         <v>26420</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1371,7 +1370,7 @@
       <c r="A61" s="1">
         <v>26451</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1379,7 +1378,7 @@
       <c r="A62" s="1">
         <v>26481</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="2">
         <v>2E-3</v>
       </c>
     </row>
@@ -1387,7 +1386,7 @@
       <c r="A63" s="1">
         <v>26512</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1395,7 +1394,7 @@
       <c r="A64" s="1">
         <v>26543</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1403,7 +1402,7 @@
       <c r="A65" s="1">
         <v>26573</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1411,7 +1410,7 @@
       <c r="A66" s="1">
         <v>26604</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1419,7 +1418,7 @@
       <c r="A67" s="1">
         <v>26634</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1427,7 +1426,7 @@
       <c r="A68" s="1">
         <v>26665</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1435,7 +1434,7 @@
       <c r="A69" s="1">
         <v>26696</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1443,7 +1442,7 @@
       <c r="A70" s="1">
         <v>26724</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
@@ -1451,7 +1450,7 @@
       <c r="A71" s="1">
         <v>26755</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -1459,7 +1458,7 @@
       <c r="A72" s="1">
         <v>26785</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -1467,7 +1466,7 @@
       <c r="A73" s="1">
         <v>26816</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -1475,7 +1474,7 @@
       <c r="A74" s="1">
         <v>26846</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -1483,7 +1482,7 @@
       <c r="A75" s="1">
         <v>26877</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -1491,7 +1490,7 @@
       <c r="A76" s="1">
         <v>26908</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1499,7 +1498,7 @@
       <c r="A77" s="1">
         <v>26938</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1507,7 +1506,7 @@
       <c r="A78" s="1">
         <v>26969</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="2">
         <v>0.01</v>
       </c>
     </row>
@@ -1515,7 +1514,7 @@
       <c r="A79" s="1">
         <v>26999</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79" s="2">
         <v>0.29499999999999998</v>
       </c>
     </row>
@@ -1523,7 +1522,7 @@
       <c r="A80" s="1">
         <v>27030</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80" s="2">
         <v>0.32500000000000001</v>
       </c>
     </row>
@@ -1531,7 +1530,7 @@
       <c r="A81" s="1">
         <v>27061</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81" s="2">
         <v>0.27600000000000002</v>
       </c>
     </row>
@@ -1539,7 +1538,7 @@
       <c r="A82" s="1">
         <v>27089</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" s="2">
         <v>0.254</v>
       </c>
     </row>
@@ -1547,7 +1546,7 @@
       <c r="A83" s="1">
         <v>27120</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83" s="2">
         <v>0.23899999999999999</v>
       </c>
     </row>
@@ -1555,7 +1554,7 @@
       <c r="A84" s="1">
         <v>27150</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84" s="2">
         <v>0.23</v>
       </c>
     </row>
@@ -1563,7 +1562,7 @@
       <c r="A85" s="1">
         <v>27181</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85" s="2">
         <v>0.35399999999999998</v>
       </c>
     </row>
@@ -1571,7 +1570,7 @@
       <c r="A86" s="1">
         <v>27211</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86" s="2">
         <v>0.45900000000000002</v>
       </c>
     </row>
@@ -1579,7 +1578,7 @@
       <c r="A87" s="1">
         <v>27242</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87" s="2">
         <v>0.78900000000000003</v>
       </c>
     </row>
@@ -1587,7 +1586,7 @@
       <c r="A88" s="1">
         <v>27273</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88" s="2">
         <v>0.83399999999999996</v>
       </c>
     </row>
@@ -1595,7 +1594,7 @@
       <c r="A89" s="1">
         <v>27303</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89" s="2">
         <v>0.94399999999999995</v>
       </c>
     </row>
@@ -1603,7 +1602,7 @@
       <c r="A90" s="1">
         <v>27334</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1611,7 +1610,7 @@
       <c r="A91" s="1">
         <v>27364</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1619,7 +1618,7 @@
       <c r="A92" s="1">
         <v>27395</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92" s="2">
         <v>0.997</v>
       </c>
     </row>
@@ -1627,7 +1626,7 @@
       <c r="A93" s="1">
         <v>27426</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93" s="2">
         <v>0.996</v>
       </c>
     </row>
@@ -1635,7 +1634,7 @@
       <c r="A94" s="1">
         <v>27454</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94" s="2">
         <v>0.94299999999999995</v>
       </c>
     </row>
@@ -1643,7 +1642,7 @@
       <c r="A95" s="1">
         <v>27485</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95" s="2">
         <v>0.184</v>
       </c>
     </row>
@@ -1651,7 +1650,7 @@
       <c r="A96" s="1">
         <v>27515</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
@@ -1659,7 +1658,7 @@
       <c r="A97" s="1">
         <v>27546</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
@@ -1667,7 +1666,7 @@
       <c r="A98" s="1">
         <v>27576</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -1675,7 +1674,7 @@
       <c r="A99" s="1">
         <v>27607</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1683,7 +1682,7 @@
       <c r="A100" s="1">
         <v>27638</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1691,7 +1690,7 @@
       <c r="A101" s="1">
         <v>27668</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1699,7 +1698,7 @@
       <c r="A102" s="1">
         <v>27699</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1707,7 +1706,7 @@
       <c r="A103" s="1">
         <v>27729</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1715,7 +1714,7 @@
       <c r="A104" s="1">
         <v>27760</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B104" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1723,7 +1722,7 @@
       <c r="A105" s="1">
         <v>27791</v>
       </c>
-      <c r="B105" s="3">
+      <c r="B105" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1731,7 +1730,7 @@
       <c r="A106" s="1">
         <v>27820</v>
       </c>
-      <c r="B106" s="3">
+      <c r="B106" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -1739,7 +1738,7 @@
       <c r="A107" s="1">
         <v>27851</v>
       </c>
-      <c r="B107" s="3">
+      <c r="B107" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1747,7 +1746,7 @@
       <c r="A108" s="1">
         <v>27881</v>
       </c>
-      <c r="B108" s="3">
+      <c r="B108" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -1755,7 +1754,7 @@
       <c r="A109" s="1">
         <v>27912</v>
       </c>
-      <c r="B109" s="3">
+      <c r="B109" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1763,7 +1762,7 @@
       <c r="A110" s="1">
         <v>27942</v>
       </c>
-      <c r="B110" s="3">
+      <c r="B110" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1771,7 +1770,7 @@
       <c r="A111" s="1">
         <v>27973</v>
       </c>
-      <c r="B111" s="3">
+      <c r="B111" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1779,7 +1778,7 @@
       <c r="A112" s="1">
         <v>28004</v>
       </c>
-      <c r="B112" s="3">
+      <c r="B112" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -1787,7 +1786,7 @@
       <c r="A113" s="1">
         <v>28034</v>
       </c>
-      <c r="B113" s="3">
+      <c r="B113" s="2">
         <v>2E-3</v>
       </c>
     </row>
@@ -1795,7 +1794,7 @@
       <c r="A114" s="1">
         <v>28065</v>
       </c>
-      <c r="B114" s="3">
+      <c r="B114" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1803,7 +1802,7 @@
       <c r="A115" s="1">
         <v>28095</v>
       </c>
-      <c r="B115" s="3">
+      <c r="B115" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1811,7 +1810,7 @@
       <c r="A116" s="1">
         <v>28126</v>
       </c>
-      <c r="B116" s="3">
+      <c r="B116" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
@@ -1819,7 +1818,7 @@
       <c r="A117" s="1">
         <v>28157</v>
       </c>
-      <c r="B117" s="3">
+      <c r="B117" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1827,7 +1826,7 @@
       <c r="A118" s="1">
         <v>28185</v>
       </c>
-      <c r="B118" s="3">
+      <c r="B118" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1835,7 +1834,7 @@
       <c r="A119" s="1">
         <v>28216</v>
       </c>
-      <c r="B119" s="3">
+      <c r="B119" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1843,7 +1842,7 @@
       <c r="A120" s="1">
         <v>28246</v>
       </c>
-      <c r="B120" s="3">
+      <c r="B120" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1851,7 +1850,7 @@
       <c r="A121" s="1">
         <v>28277</v>
       </c>
-      <c r="B121" s="3">
+      <c r="B121" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1859,7 +1858,7 @@
       <c r="A122" s="1">
         <v>28307</v>
       </c>
-      <c r="B122" s="3">
+      <c r="B122" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1867,7 +1866,7 @@
       <c r="A123" s="1">
         <v>28338</v>
       </c>
-      <c r="B123" s="3">
+      <c r="B123" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -1875,7 +1874,7 @@
       <c r="A124" s="1">
         <v>28369</v>
       </c>
-      <c r="B124" s="3">
+      <c r="B124" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1883,7 +1882,7 @@
       <c r="A125" s="1">
         <v>28399</v>
       </c>
-      <c r="B125" s="3">
+      <c r="B125" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1891,7 +1890,7 @@
       <c r="A126" s="1">
         <v>28430</v>
       </c>
-      <c r="B126" s="3">
+      <c r="B126" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -1899,7 +1898,7 @@
       <c r="A127" s="1">
         <v>28460</v>
       </c>
-      <c r="B127" s="3">
+      <c r="B127" s="2">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
@@ -1907,7 +1906,7 @@
       <c r="A128" s="1">
         <v>28491</v>
       </c>
-      <c r="B128" s="3">
+      <c r="B128" s="2">
         <v>0.13500000000000001</v>
       </c>
     </row>
@@ -1915,7 +1914,7 @@
       <c r="A129" s="1">
         <v>28522</v>
       </c>
-      <c r="B129" s="3">
+      <c r="B129" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -1923,7 +1922,7 @@
       <c r="A130" s="1">
         <v>28550</v>
       </c>
-      <c r="B130" s="3">
+      <c r="B130" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1931,7 +1930,7 @@
       <c r="A131" s="1">
         <v>28581</v>
       </c>
-      <c r="B131" s="3">
+      <c r="B131" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1939,7 +1938,7 @@
       <c r="A132" s="1">
         <v>28611</v>
       </c>
-      <c r="B132" s="3">
+      <c r="B132" s="2">
         <v>2E-3</v>
       </c>
     </row>
@@ -1947,7 +1946,7 @@
       <c r="A133" s="1">
         <v>28642</v>
       </c>
-      <c r="B133" s="3">
+      <c r="B133" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1955,7 +1954,7 @@
       <c r="A134" s="1">
         <v>28672</v>
       </c>
-      <c r="B134" s="3">
+      <c r="B134" s="2">
         <v>2E-3</v>
       </c>
     </row>
@@ -1963,7 +1962,7 @@
       <c r="A135" s="1">
         <v>28703</v>
       </c>
-      <c r="B135" s="3">
+      <c r="B135" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -1971,7 +1970,7 @@
       <c r="A136" s="1">
         <v>28734</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B136" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -1979,7 +1978,7 @@
       <c r="A137" s="1">
         <v>28764</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B137" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -1987,7 +1986,7 @@
       <c r="A138" s="1">
         <v>28795</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B138" s="2">
         <v>0</v>
       </c>
     </row>
@@ -1995,7 +1994,7 @@
       <c r="A139" s="1">
         <v>28825</v>
       </c>
-      <c r="B139" s="3">
+      <c r="B139" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -2003,7 +2002,7 @@
       <c r="A140" s="1">
         <v>28856</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140" s="2">
         <v>1.4E-2</v>
       </c>
     </row>
@@ -2011,7 +2010,7 @@
       <c r="A141" s="1">
         <v>28887</v>
       </c>
-      <c r="B141" s="3">
+      <c r="B141" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
@@ -2019,7 +2018,7 @@
       <c r="A142" s="1">
         <v>28915</v>
       </c>
-      <c r="B142" s="3">
+      <c r="B142" s="2">
         <v>1.2E-2</v>
       </c>
     </row>
@@ -2027,7 +2026,7 @@
       <c r="A143" s="1">
         <v>28946</v>
       </c>
-      <c r="B143" s="3">
+      <c r="B143" s="2">
         <v>0.314</v>
       </c>
     </row>
@@ -2035,7 +2034,7 @@
       <c r="A144" s="1">
         <v>28976</v>
       </c>
-      <c r="B144" s="3">
+      <c r="B144" s="2">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
@@ -2043,7 +2042,7 @@
       <c r="A145" s="1">
         <v>29007</v>
       </c>
-      <c r="B145" s="3">
+      <c r="B145" s="2">
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
@@ -2051,7 +2050,7 @@
       <c r="A146" s="1">
         <v>29037</v>
       </c>
-      <c r="B146" s="3">
+      <c r="B146" s="2">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
@@ -2059,7 +2058,7 @@
       <c r="A147" s="1">
         <v>29068</v>
       </c>
-      <c r="B147" s="3">
+      <c r="B147" s="2">
         <v>2.7E-2</v>
       </c>
     </row>
@@ -2067,7 +2066,7 @@
       <c r="A148" s="1">
         <v>29099</v>
       </c>
-      <c r="B148" s="3">
+      <c r="B148" s="2">
         <v>2.3E-2</v>
       </c>
     </row>
@@ -2075,7 +2074,7 @@
       <c r="A149" s="1">
         <v>29129</v>
       </c>
-      <c r="B149" s="3">
+      <c r="B149" s="2">
         <v>0.02</v>
       </c>
     </row>
@@ -2083,7 +2082,7 @@
       <c r="A150" s="1">
         <v>29160</v>
       </c>
-      <c r="B150" s="3">
+      <c r="B150" s="2">
         <v>0.03</v>
       </c>
     </row>
@@ -2091,7 +2090,7 @@
       <c r="A151" s="1">
         <v>29190</v>
       </c>
-      <c r="B151" s="3">
+      <c r="B151" s="2">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
@@ -2099,7 +2098,7 @@
       <c r="A152" s="1">
         <v>29221</v>
       </c>
-      <c r="B152" s="3">
+      <c r="B152" s="2">
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
@@ -2107,7 +2106,7 @@
       <c r="A153" s="1">
         <v>29252</v>
       </c>
-      <c r="B153" s="3">
+      <c r="B153" s="2">
         <v>0.39200000000000002</v>
       </c>
     </row>
@@ -2115,7 +2114,7 @@
       <c r="A154" s="1">
         <v>29281</v>
       </c>
-      <c r="B154" s="3">
+      <c r="B154" s="2">
         <v>0.877</v>
       </c>
     </row>
@@ -2123,7 +2122,7 @@
       <c r="A155" s="1">
         <v>29312</v>
       </c>
-      <c r="B155" s="3">
+      <c r="B155" s="2">
         <v>0.998</v>
       </c>
     </row>
@@ -2131,7 +2130,7 @@
       <c r="A156" s="1">
         <v>29342</v>
       </c>
-      <c r="B156" s="3">
+      <c r="B156" s="2">
         <v>0.999</v>
       </c>
     </row>
@@ -2139,7 +2138,7 @@
       <c r="A157" s="1">
         <v>29373</v>
       </c>
-      <c r="B157" s="3">
+      <c r="B157" s="2">
         <v>0.89</v>
       </c>
     </row>
@@ -2147,7 +2146,7 @@
       <c r="A158" s="1">
         <v>29403</v>
       </c>
-      <c r="B158" s="3">
+      <c r="B158" s="2">
         <v>0.34300000000000003</v>
       </c>
     </row>
@@ -2155,7 +2154,7 @@
       <c r="A159" s="1">
         <v>29434</v>
       </c>
-      <c r="B159" s="3">
+      <c r="B159" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
@@ -2163,7 +2162,7 @@
       <c r="A160" s="1">
         <v>29465</v>
       </c>
-      <c r="B160" s="3">
+      <c r="B160" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -2171,7 +2170,7 @@
       <c r="A161" s="1">
         <v>29495</v>
       </c>
-      <c r="B161" s="3">
+      <c r="B161" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -2179,7 +2178,7 @@
       <c r="A162" s="1">
         <v>29526</v>
       </c>
-      <c r="B162" s="3">
+      <c r="B162" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -2187,7 +2186,7 @@
       <c r="A163" s="1">
         <v>29556</v>
       </c>
-      <c r="B163" s="3">
+      <c r="B163" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
@@ -2195,7 +2194,7 @@
       <c r="A164" s="1">
         <v>29587</v>
       </c>
-      <c r="B164" s="3">
+      <c r="B164" s="2">
         <v>2.7E-2</v>
       </c>
     </row>
@@ -2203,7 +2202,7 @@
       <c r="A165" s="1">
         <v>29618</v>
       </c>
-      <c r="B165" s="3">
+      <c r="B165" s="2">
         <v>0.02</v>
       </c>
     </row>
@@ -2211,7 +2210,7 @@
       <c r="A166" s="1">
         <v>29646</v>
       </c>
-      <c r="B166" s="3">
+      <c r="B166" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
@@ -2219,7 +2218,7 @@
       <c r="A167" s="1">
         <v>29677</v>
       </c>
-      <c r="B167" s="3">
+      <c r="B167" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
@@ -2227,7 +2226,7 @@
       <c r="A168" s="1">
         <v>29707</v>
       </c>
-      <c r="B168" s="3">
+      <c r="B168" s="2">
         <v>0.01</v>
       </c>
     </row>
@@ -2235,7 +2234,7 @@
       <c r="A169" s="1">
         <v>29738</v>
       </c>
-      <c r="B169" s="3">
+      <c r="B169" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
@@ -2243,7 +2242,7 @@
       <c r="A170" s="1">
         <v>29768</v>
       </c>
-      <c r="B170" s="3">
+      <c r="B170" s="2">
         <v>3.1E-2</v>
       </c>
     </row>
@@ -2251,7 +2250,7 @@
       <c r="A171" s="1">
         <v>29799</v>
       </c>
-      <c r="B171" s="3">
+      <c r="B171" s="2">
         <v>0.47899999999999998</v>
       </c>
     </row>
@@ -2259,7 +2258,7 @@
       <c r="A172" s="1">
         <v>29830</v>
       </c>
-      <c r="B172" s="3">
+      <c r="B172" s="2">
         <v>0.84399999999999997</v>
       </c>
     </row>
@@ -2267,7 +2266,7 @@
       <c r="A173" s="1">
         <v>29860</v>
       </c>
-      <c r="B173" s="3">
+      <c r="B173" s="2">
         <v>0.93700000000000006</v>
       </c>
     </row>
@@ -2275,7 +2274,7 @@
       <c r="A174" s="1">
         <v>29891</v>
       </c>
-      <c r="B174" s="3">
+      <c r="B174" s="2">
         <v>0.96</v>
       </c>
     </row>
@@ -2283,7 +2282,7 @@
       <c r="A175" s="1">
         <v>29921</v>
       </c>
-      <c r="B175" s="3">
+      <c r="B175" s="2">
         <v>0.96199999999999997</v>
       </c>
     </row>
@@ -2291,7 +2290,7 @@
       <c r="A176" s="1">
         <v>29952</v>
       </c>
-      <c r="B176" s="3">
+      <c r="B176" s="2">
         <v>0.93700000000000006</v>
       </c>
     </row>
@@ -2299,7 +2298,7 @@
       <c r="A177" s="1">
         <v>29983</v>
       </c>
-      <c r="B177" s="3">
+      <c r="B177" s="2">
         <v>0.11899999999999999</v>
       </c>
     </row>
@@ -2307,7 +2306,7 @@
       <c r="A178" s="1">
         <v>30011</v>
       </c>
-      <c r="B178" s="3">
+      <c r="B178" s="2">
         <v>0.61899999999999999</v>
       </c>
     </row>
@@ -2315,7 +2314,7 @@
       <c r="A179" s="1">
         <v>30042</v>
       </c>
-      <c r="B179" s="3">
+      <c r="B179" s="2">
         <v>0.73199999999999998</v>
       </c>
     </row>
@@ -2323,7 +2322,7 @@
       <c r="A180" s="1">
         <v>30072</v>
       </c>
-      <c r="B180" s="3">
+      <c r="B180" s="2">
         <v>0.76800000000000002</v>
       </c>
     </row>
@@ -2331,7 +2330,7 @@
       <c r="A181" s="1">
         <v>30103</v>
       </c>
-      <c r="B181" s="3">
+      <c r="B181" s="2">
         <v>0.79800000000000004</v>
       </c>
     </row>
@@ -2339,7 +2338,7 @@
       <c r="A182" s="1">
         <v>30133</v>
       </c>
-      <c r="B182" s="3">
+      <c r="B182" s="2">
         <v>0.80500000000000005</v>
       </c>
     </row>
@@ -2347,7 +2346,7 @@
       <c r="A183" s="1">
         <v>30164</v>
       </c>
-      <c r="B183" s="3">
+      <c r="B183" s="2">
         <v>0.79100000000000004</v>
       </c>
     </row>
@@ -2355,7 +2354,7 @@
       <c r="A184" s="1">
         <v>30195</v>
       </c>
-      <c r="B184" s="3">
+      <c r="B184" s="2">
         <v>0.75700000000000001</v>
       </c>
     </row>
@@ -2363,7 +2362,7 @@
       <c r="A185" s="1">
         <v>30225</v>
       </c>
-      <c r="B185" s="3">
+      <c r="B185" s="2">
         <v>0.72899999999999998</v>
       </c>
     </row>
@@ -2371,7 +2370,7 @@
       <c r="A186" s="1">
         <v>30256</v>
       </c>
-      <c r="B186" s="3">
+      <c r="B186" s="2">
         <v>0.378</v>
       </c>
     </row>
@@ -2379,7 +2378,7 @@
       <c r="A187" s="1">
         <v>30286</v>
       </c>
-      <c r="B187" s="3">
+      <c r="B187" s="2">
         <v>0.151</v>
       </c>
     </row>
@@ -2387,7 +2386,7 @@
       <c r="A188" s="1">
         <v>30317</v>
       </c>
-      <c r="B188" s="3">
+      <c r="B188" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
@@ -2395,7 +2394,7 @@
       <c r="A189" s="1">
         <v>30348</v>
       </c>
-      <c r="B189" s="3">
+      <c r="B189" s="2">
         <v>1.6E-2</v>
       </c>
     </row>
@@ -2403,7 +2402,7 @@
       <c r="A190" s="1">
         <v>30376</v>
       </c>
-      <c r="B190" s="3">
+      <c r="B190" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -2411,7 +2410,7 @@
       <c r="A191" s="1">
         <v>30407</v>
       </c>
-      <c r="B191" s="3">
+      <c r="B191" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2419,7 +2418,7 @@
       <c r="A192" s="1">
         <v>30437</v>
       </c>
-      <c r="B192" s="3">
+      <c r="B192" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2427,7 +2426,7 @@
       <c r="A193" s="1">
         <v>30468</v>
       </c>
-      <c r="B193" s="3">
+      <c r="B193" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2435,7 +2434,7 @@
       <c r="A194" s="1">
         <v>30498</v>
       </c>
-      <c r="B194" s="3">
+      <c r="B194" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2443,7 +2442,7 @@
       <c r="A195" s="1">
         <v>30529</v>
       </c>
-      <c r="B195" s="3">
+      <c r="B195" s="2">
         <v>2E-3</v>
       </c>
     </row>
@@ -2451,7 +2450,7 @@
       <c r="A196" s="1">
         <v>30560</v>
       </c>
-      <c r="B196" s="3">
+      <c r="B196" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2459,7 +2458,7 @@
       <c r="A197" s="1">
         <v>30590</v>
       </c>
-      <c r="B197" s="3">
+      <c r="B197" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2467,7 +2466,7 @@
       <c r="A198" s="1">
         <v>30621</v>
       </c>
-      <c r="B198" s="3">
+      <c r="B198" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2475,7 +2474,7 @@
       <c r="A199" s="1">
         <v>30651</v>
       </c>
-      <c r="B199" s="3">
+      <c r="B199" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2483,7 +2482,7 @@
       <c r="A200" s="1">
         <v>30682</v>
       </c>
-      <c r="B200" s="3">
+      <c r="B200" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2491,7 +2490,7 @@
       <c r="A201" s="1">
         <v>30713</v>
       </c>
-      <c r="B201" s="3">
+      <c r="B201" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2499,7 +2498,7 @@
       <c r="A202" s="1">
         <v>30742</v>
       </c>
-      <c r="B202" s="3">
+      <c r="B202" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2507,7 +2506,7 @@
       <c r="A203" s="1">
         <v>30773</v>
       </c>
-      <c r="B203" s="3">
+      <c r="B203" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2515,7 +2514,7 @@
       <c r="A204" s="1">
         <v>30803</v>
       </c>
-      <c r="B204" s="3">
+      <c r="B204" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2523,7 +2522,7 @@
       <c r="A205" s="1">
         <v>30834</v>
       </c>
-      <c r="B205" s="3">
+      <c r="B205" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2531,7 +2530,7 @@
       <c r="A206" s="1">
         <v>30864</v>
       </c>
-      <c r="B206" s="3">
+      <c r="B206" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -2539,7 +2538,7 @@
       <c r="A207" s="1">
         <v>30895</v>
       </c>
-      <c r="B207" s="3">
+      <c r="B207" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -2547,7 +2546,7 @@
       <c r="A208" s="1">
         <v>30926</v>
       </c>
-      <c r="B208" s="3">
+      <c r="B208" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -2555,7 +2554,7 @@
       <c r="A209" s="1">
         <v>30956</v>
       </c>
-      <c r="B209" s="3">
+      <c r="B209" s="2">
         <v>2E-3</v>
       </c>
     </row>
@@ -2563,7 +2562,7 @@
       <c r="A210" s="1">
         <v>30987</v>
       </c>
-      <c r="B210" s="3">
+      <c r="B210" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -2571,7 +2570,7 @@
       <c r="A211" s="1">
         <v>31017</v>
       </c>
-      <c r="B211" s="3">
+      <c r="B211" s="2">
         <v>2E-3</v>
       </c>
     </row>
@@ -2579,7 +2578,7 @@
       <c r="A212" s="1">
         <v>31048</v>
       </c>
-      <c r="B212" s="3">
+      <c r="B212" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -2587,7 +2586,7 @@
       <c r="A213" s="1">
         <v>31079</v>
       </c>
-      <c r="B213" s="3">
+      <c r="B213" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2595,7 +2594,7 @@
       <c r="A214" s="1">
         <v>31107</v>
       </c>
-      <c r="B214" s="3">
+      <c r="B214" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2603,7 +2602,7 @@
       <c r="A215" s="1">
         <v>31138</v>
       </c>
-      <c r="B215" s="3">
+      <c r="B215" s="2">
         <v>2E-3</v>
       </c>
     </row>
@@ -2611,7 +2610,7 @@
       <c r="A216" s="1">
         <v>31168</v>
       </c>
-      <c r="B216" s="3">
+      <c r="B216" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -2619,7 +2618,7 @@
       <c r="A217" s="1">
         <v>31199</v>
       </c>
-      <c r="B217" s="3">
+      <c r="B217" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
@@ -2627,7 +2626,7 @@
       <c r="A218" s="1">
         <v>31229</v>
       </c>
-      <c r="B218" s="3">
+      <c r="B218" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
@@ -2635,7 +2634,7 @@
       <c r="A219" s="1">
         <v>31260</v>
       </c>
-      <c r="B219" s="3">
+      <c r="B219" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2643,7 +2642,7 @@
       <c r="A220" s="1">
         <v>31291</v>
       </c>
-      <c r="B220" s="3">
+      <c r="B220" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2651,7 +2650,7 @@
       <c r="A221" s="1">
         <v>31321</v>
       </c>
-      <c r="B221" s="3">
+      <c r="B221" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -2659,7 +2658,7 @@
       <c r="A222" s="1">
         <v>31352</v>
       </c>
-      <c r="B222" s="3">
+      <c r="B222" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -2667,7 +2666,7 @@
       <c r="A223" s="1">
         <v>31382</v>
       </c>
-      <c r="B223" s="3">
+      <c r="B223" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2675,7 +2674,7 @@
       <c r="A224" s="1">
         <v>31413</v>
       </c>
-      <c r="B224" s="3">
+      <c r="B224" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -2683,7 +2682,7 @@
       <c r="A225" s="1">
         <v>31444</v>
       </c>
-      <c r="B225" s="3">
+      <c r="B225" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
@@ -2691,7 +2690,7 @@
       <c r="A226" s="1">
         <v>31472</v>
       </c>
-      <c r="B226" s="3">
+      <c r="B226" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -2699,7 +2698,7 @@
       <c r="A227" s="1">
         <v>31503</v>
       </c>
-      <c r="B227" s="3">
+      <c r="B227" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -2707,7 +2706,7 @@
       <c r="A228" s="1">
         <v>31533</v>
       </c>
-      <c r="B228" s="3">
+      <c r="B228" s="2">
         <v>2E-3</v>
       </c>
     </row>
@@ -2715,7 +2714,7 @@
       <c r="A229" s="1">
         <v>31564</v>
       </c>
-      <c r="B229" s="3">
+      <c r="B229" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -2723,7 +2722,7 @@
       <c r="A230" s="1">
         <v>31594</v>
       </c>
-      <c r="B230" s="3">
+      <c r="B230" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2731,7 +2730,7 @@
       <c r="A231" s="1">
         <v>31625</v>
       </c>
-      <c r="B231" s="3">
+      <c r="B231" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2739,7 +2738,7 @@
       <c r="A232" s="1">
         <v>31656</v>
       </c>
-      <c r="B232" s="3">
+      <c r="B232" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2747,7 +2746,7 @@
       <c r="A233" s="1">
         <v>31686</v>
       </c>
-      <c r="B233" s="3">
+      <c r="B233" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -2755,7 +2754,7 @@
       <c r="A234" s="1">
         <v>31717</v>
       </c>
-      <c r="B234" s="3">
+      <c r="B234" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -2763,7 +2762,7 @@
       <c r="A235" s="1">
         <v>31747</v>
       </c>
-      <c r="B235" s="3">
+      <c r="B235" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -2771,7 +2770,7 @@
       <c r="A236" s="1">
         <v>31778</v>
       </c>
-      <c r="B236" s="3">
+      <c r="B236" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
@@ -2779,7 +2778,7 @@
       <c r="A237" s="1">
         <v>31809</v>
       </c>
-      <c r="B237" s="3">
+      <c r="B237" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2787,7 +2786,7 @@
       <c r="A238" s="1">
         <v>31837</v>
       </c>
-      <c r="B238" s="3">
+      <c r="B238" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -2795,7 +2794,7 @@
       <c r="A239" s="1">
         <v>31868</v>
       </c>
-      <c r="B239" s="3">
+      <c r="B239" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2803,7 +2802,7 @@
       <c r="A240" s="1">
         <v>31898</v>
       </c>
-      <c r="B240" s="3">
+      <c r="B240" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2811,7 +2810,7 @@
       <c r="A241" s="1">
         <v>31929</v>
       </c>
-      <c r="B241" s="3">
+      <c r="B241" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2819,7 +2818,7 @@
       <c r="A242" s="1">
         <v>31959</v>
       </c>
-      <c r="B242" s="3">
+      <c r="B242" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2827,7 +2826,7 @@
       <c r="A243" s="1">
         <v>31990</v>
       </c>
-      <c r="B243" s="3">
+      <c r="B243" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2835,7 +2834,7 @@
       <c r="A244" s="1">
         <v>32021</v>
       </c>
-      <c r="B244" s="3">
+      <c r="B244" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2843,7 +2842,7 @@
       <c r="A245" s="1">
         <v>32051</v>
       </c>
-      <c r="B245" s="3">
+      <c r="B245" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2851,7 +2850,7 @@
       <c r="A246" s="1">
         <v>32082</v>
       </c>
-      <c r="B246" s="3">
+      <c r="B246" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -2859,7 +2858,7 @@
       <c r="A247" s="1">
         <v>32112</v>
       </c>
-      <c r="B247" s="3">
+      <c r="B247" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2867,7 +2866,7 @@
       <c r="A248" s="1">
         <v>32143</v>
       </c>
-      <c r="B248" s="3">
+      <c r="B248" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -2875,7 +2874,7 @@
       <c r="A249" s="1">
         <v>32174</v>
       </c>
-      <c r="B249" s="3">
+      <c r="B249" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2883,7 +2882,7 @@
       <c r="A250" s="1">
         <v>32203</v>
       </c>
-      <c r="B250" s="3">
+      <c r="B250" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -2891,7 +2890,7 @@
       <c r="A251" s="1">
         <v>32234</v>
       </c>
-      <c r="B251" s="3">
+      <c r="B251" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2899,7 +2898,7 @@
       <c r="A252" s="1">
         <v>32264</v>
       </c>
-      <c r="B252" s="3">
+      <c r="B252" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2907,7 +2906,7 @@
       <c r="A253" s="1">
         <v>32295</v>
       </c>
-      <c r="B253" s="3">
+      <c r="B253" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2915,7 +2914,7 @@
       <c r="A254" s="1">
         <v>32325</v>
       </c>
-      <c r="B254" s="3">
+      <c r="B254" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -2923,7 +2922,7 @@
       <c r="A255" s="1">
         <v>32356</v>
       </c>
-      <c r="B255" s="3">
+      <c r="B255" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2931,7 +2930,7 @@
       <c r="A256" s="1">
         <v>32387</v>
       </c>
-      <c r="B256" s="3">
+      <c r="B256" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2939,7 +2938,7 @@
       <c r="A257" s="1">
         <v>32417</v>
       </c>
-      <c r="B257" s="3">
+      <c r="B257" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2947,7 +2946,7 @@
       <c r="A258" s="1">
         <v>32448</v>
       </c>
-      <c r="B258" s="3">
+      <c r="B258" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2955,7 +2954,7 @@
       <c r="A259" s="1">
         <v>32478</v>
       </c>
-      <c r="B259" s="3">
+      <c r="B259" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2963,7 +2962,7 @@
       <c r="A260" s="1">
         <v>32509</v>
       </c>
-      <c r="B260" s="3">
+      <c r="B260" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -2971,7 +2970,7 @@
       <c r="A261" s="1">
         <v>32540</v>
       </c>
-      <c r="B261" s="3">
+      <c r="B261" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
@@ -2979,7 +2978,7 @@
       <c r="A262" s="1">
         <v>32568</v>
       </c>
-      <c r="B262" s="3">
+      <c r="B262" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -2987,7 +2986,7 @@
       <c r="A263" s="1">
         <v>32599</v>
       </c>
-      <c r="B263" s="3">
+      <c r="B263" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
@@ -2995,7 +2994,7 @@
       <c r="A264" s="1">
         <v>32629</v>
       </c>
-      <c r="B264" s="3">
+      <c r="B264" s="2">
         <v>0.01</v>
       </c>
     </row>
@@ -3003,7 +3002,7 @@
       <c r="A265" s="1">
         <v>32660</v>
       </c>
-      <c r="B265" s="3">
+      <c r="B265" s="2">
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
@@ -3011,7 +3010,7 @@
       <c r="A266" s="1">
         <v>32690</v>
       </c>
-      <c r="B266" s="3">
+      <c r="B266" s="2">
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
@@ -3019,7 +3018,7 @@
       <c r="A267" s="1">
         <v>32721</v>
       </c>
-      <c r="B267" s="3">
+      <c r="B267" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -3027,7 +3026,7 @@
       <c r="A268" s="1">
         <v>32752</v>
       </c>
-      <c r="B268" s="3">
+      <c r="B268" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -3035,7 +3034,7 @@
       <c r="A269" s="1">
         <v>32782</v>
       </c>
-      <c r="B269" s="3">
+      <c r="B269" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3043,7 +3042,7 @@
       <c r="A270" s="1">
         <v>32813</v>
       </c>
-      <c r="B270" s="3">
+      <c r="B270" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -3051,7 +3050,7 @@
       <c r="A271" s="1">
         <v>32843</v>
       </c>
-      <c r="B271" s="3">
+      <c r="B271" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -3059,7 +3058,7 @@
       <c r="A272" s="1">
         <v>32874</v>
       </c>
-      <c r="B272" s="3">
+      <c r="B272" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -3067,7 +3066,7 @@
       <c r="A273" s="1">
         <v>32905</v>
       </c>
-      <c r="B273" s="3">
+      <c r="B273" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -3075,7 +3074,7 @@
       <c r="A274" s="1">
         <v>32933</v>
       </c>
-      <c r="B274" s="3">
+      <c r="B274" s="2">
         <v>2E-3</v>
       </c>
     </row>
@@ -3083,7 +3082,7 @@
       <c r="A275" s="1">
         <v>32964</v>
       </c>
-      <c r="B275" s="3">
+      <c r="B275" s="2">
         <v>1.2E-2</v>
       </c>
     </row>
@@ -3091,7 +3090,7 @@
       <c r="A276" s="1">
         <v>32994</v>
       </c>
-      <c r="B276" s="3">
+      <c r="B276" s="2">
         <v>1.4E-2</v>
       </c>
     </row>
@@ -3099,7 +3098,7 @@
       <c r="A277" s="1">
         <v>33025</v>
       </c>
-      <c r="B277" s="3">
+      <c r="B277" s="2">
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
@@ -3107,7 +3106,7 @@
       <c r="A278" s="1">
         <v>33055</v>
       </c>
-      <c r="B278" s="3">
+      <c r="B278" s="2">
         <v>0.09</v>
       </c>
     </row>
@@ -3115,7 +3114,7 @@
       <c r="A279" s="1">
         <v>33086</v>
       </c>
-      <c r="B279" s="3">
+      <c r="B279" s="2">
         <v>0.17899999999999999</v>
       </c>
     </row>
@@ -3123,7 +3122,7 @@
       <c r="A280" s="1">
         <v>33117</v>
       </c>
-      <c r="B280" s="3">
+      <c r="B280" s="2">
         <v>0.35899999999999999</v>
       </c>
     </row>
@@ -3131,7 +3130,7 @@
       <c r="A281" s="1">
         <v>33147</v>
       </c>
-      <c r="B281" s="3">
+      <c r="B281" s="2">
         <v>0.58299999999999996</v>
       </c>
     </row>
@@ -3139,7 +3138,7 @@
       <c r="A282" s="1">
         <v>33178</v>
       </c>
-      <c r="B282" s="3">
+      <c r="B282" s="2">
         <v>0.621</v>
       </c>
     </row>
@@ -3147,7 +3146,7 @@
       <c r="A283" s="1">
         <v>33208</v>
       </c>
-      <c r="B283" s="3">
+      <c r="B283" s="2">
         <v>0.60699999999999998</v>
       </c>
     </row>
@@ -3155,7 +3154,7 @@
       <c r="A284" s="1">
         <v>33239</v>
       </c>
-      <c r="B284" s="3">
+      <c r="B284" s="2">
         <v>0.59</v>
       </c>
     </row>
@@ -3163,7 +3162,7 @@
       <c r="A285" s="1">
         <v>33270</v>
       </c>
-      <c r="B285" s="3">
+      <c r="B285" s="2">
         <v>0.51500000000000001</v>
       </c>
     </row>
@@ -3171,7 +3170,7 @@
       <c r="A286" s="1">
         <v>33298</v>
       </c>
-      <c r="B286" s="3">
+      <c r="B286" s="2">
         <v>0.34</v>
       </c>
     </row>
@@ -3179,7 +3178,7 @@
       <c r="A287" s="1">
         <v>33329</v>
       </c>
-      <c r="B287" s="3">
+      <c r="B287" s="2">
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
@@ -3187,7 +3186,7 @@
       <c r="A288" s="1">
         <v>33359</v>
       </c>
-      <c r="B288" s="3">
+      <c r="B288" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
@@ -3195,7 +3194,7 @@
       <c r="A289" s="1">
         <v>33390</v>
       </c>
-      <c r="B289" s="3">
+      <c r="B289" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -3203,7 +3202,7 @@
       <c r="A290" s="1">
         <v>33420</v>
       </c>
-      <c r="B290" s="3">
+      <c r="B290" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -3211,7 +3210,7 @@
       <c r="A291" s="1">
         <v>33451</v>
       </c>
-      <c r="B291" s="3">
+      <c r="B291" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
@@ -3219,7 +3218,7 @@
       <c r="A292" s="1">
         <v>33482</v>
       </c>
-      <c r="B292" s="3">
+      <c r="B292" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -3227,7 +3226,7 @@
       <c r="A293" s="1">
         <v>33512</v>
       </c>
-      <c r="B293" s="3">
+      <c r="B293" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
@@ -3235,7 +3234,7 @@
       <c r="A294" s="1">
         <v>33543</v>
       </c>
-      <c r="B294" s="3">
+      <c r="B294" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
@@ -3243,7 +3242,7 @@
       <c r="A295" s="1">
         <v>33573</v>
       </c>
-      <c r="B295" s="3">
+      <c r="B295" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
@@ -3251,7 +3250,7 @@
       <c r="A296" s="1">
         <v>33604</v>
       </c>
-      <c r="B296" s="3">
+      <c r="B296" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -3259,7 +3258,7 @@
       <c r="A297" s="1">
         <v>33635</v>
       </c>
-      <c r="B297" s="3">
+      <c r="B297" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3267,7 +3266,7 @@
       <c r="A298" s="1">
         <v>33664</v>
       </c>
-      <c r="B298" s="3">
+      <c r="B298" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3275,7 +3274,7 @@
       <c r="A299" s="1">
         <v>33695</v>
       </c>
-      <c r="B299" s="3">
+      <c r="B299" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3283,7 +3282,7 @@
       <c r="A300" s="1">
         <v>33725</v>
       </c>
-      <c r="B300" s="3">
+      <c r="B300" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3291,7 +3290,7 @@
       <c r="A301" s="1">
         <v>33756</v>
       </c>
-      <c r="B301" s="3">
+      <c r="B301" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -3299,7 +3298,7 @@
       <c r="A302" s="1">
         <v>33786</v>
       </c>
-      <c r="B302" s="3">
+      <c r="B302" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3307,7 +3306,7 @@
       <c r="A303" s="1">
         <v>33817</v>
       </c>
-      <c r="B303" s="3">
+      <c r="B303" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -3315,7 +3314,7 @@
       <c r="A304" s="1">
         <v>33848</v>
       </c>
-      <c r="B304" s="3">
+      <c r="B304" s="2">
         <v>2E-3</v>
       </c>
     </row>
@@ -3323,7 +3322,7 @@
       <c r="A305" s="1">
         <v>33878</v>
       </c>
-      <c r="B305" s="3">
+      <c r="B305" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -3331,7 +3330,7 @@
       <c r="A306" s="1">
         <v>33909</v>
       </c>
-      <c r="B306" s="3">
+      <c r="B306" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3339,7 +3338,7 @@
       <c r="A307" s="1">
         <v>33939</v>
       </c>
-      <c r="B307" s="3">
+      <c r="B307" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3347,7 +3346,7 @@
       <c r="A308" s="1">
         <v>33970</v>
       </c>
-      <c r="B308" s="3">
+      <c r="B308" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3355,7 +3354,7 @@
       <c r="A309" s="1">
         <v>34001</v>
       </c>
-      <c r="B309" s="3">
+      <c r="B309" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3363,7 +3362,7 @@
       <c r="A310" s="1">
         <v>34029</v>
       </c>
-      <c r="B310" s="3">
+      <c r="B310" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
@@ -3371,7 +3370,7 @@
       <c r="A311" s="1">
         <v>34060</v>
       </c>
-      <c r="B311" s="3">
+      <c r="B311" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3379,7 +3378,7 @@
       <c r="A312" s="1">
         <v>34090</v>
       </c>
-      <c r="B312" s="3">
+      <c r="B312" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -3387,7 +3386,7 @@
       <c r="A313" s="1">
         <v>34121</v>
       </c>
-      <c r="B313" s="3">
+      <c r="B313" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3395,7 +3394,7 @@
       <c r="A314" s="1">
         <v>34151</v>
       </c>
-      <c r="B314" s="3">
+      <c r="B314" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3403,7 +3402,7 @@
       <c r="A315" s="1">
         <v>34182</v>
       </c>
-      <c r="B315" s="3">
+      <c r="B315" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -3411,7 +3410,7 @@
       <c r="A316" s="1">
         <v>34213</v>
       </c>
-      <c r="B316" s="3">
+      <c r="B316" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3419,7 +3418,7 @@
       <c r="A317" s="1">
         <v>34243</v>
       </c>
-      <c r="B317" s="3">
+      <c r="B317" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3427,7 +3426,7 @@
       <c r="A318" s="1">
         <v>34274</v>
       </c>
-      <c r="B318" s="3">
+      <c r="B318" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3435,7 +3434,7 @@
       <c r="A319" s="1">
         <v>34304</v>
       </c>
-      <c r="B319" s="3">
+      <c r="B319" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3443,7 +3442,7 @@
       <c r="A320" s="1">
         <v>34335</v>
       </c>
-      <c r="B320" s="3">
+      <c r="B320" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3451,7 +3450,7 @@
       <c r="A321" s="1">
         <v>34366</v>
       </c>
-      <c r="B321" s="3">
+      <c r="B321" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -3459,7 +3458,7 @@
       <c r="A322" s="1">
         <v>34394</v>
       </c>
-      <c r="B322" s="3">
+      <c r="B322" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3467,7 +3466,7 @@
       <c r="A323" s="1">
         <v>34425</v>
       </c>
-      <c r="B323" s="3">
+      <c r="B323" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3475,7 +3474,7 @@
       <c r="A324" s="1">
         <v>34455</v>
       </c>
-      <c r="B324" s="3">
+      <c r="B324" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3483,7 +3482,7 @@
       <c r="A325" s="1">
         <v>34486</v>
       </c>
-      <c r="B325" s="3">
+      <c r="B325" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3491,7 +3490,7 @@
       <c r="A326" s="1">
         <v>34516</v>
       </c>
-      <c r="B326" s="3">
+      <c r="B326" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3499,7 +3498,7 @@
       <c r="A327" s="1">
         <v>34547</v>
       </c>
-      <c r="B327" s="3">
+      <c r="B327" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3507,7 +3506,7 @@
       <c r="A328" s="1">
         <v>34578</v>
       </c>
-      <c r="B328" s="3">
+      <c r="B328" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3515,7 +3514,7 @@
       <c r="A329" s="1">
         <v>34608</v>
       </c>
-      <c r="B329" s="3">
+      <c r="B329" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3523,7 +3522,7 @@
       <c r="A330" s="1">
         <v>34639</v>
       </c>
-      <c r="B330" s="3">
+      <c r="B330" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -3531,7 +3530,7 @@
       <c r="A331" s="1">
         <v>34669</v>
       </c>
-      <c r="B331" s="3">
+      <c r="B331" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3539,7 +3538,7 @@
       <c r="A332" s="1">
         <v>34700</v>
       </c>
-      <c r="B332" s="3">
+      <c r="B332" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -3547,7 +3546,7 @@
       <c r="A333" s="1">
         <v>34731</v>
       </c>
-      <c r="B333" s="3">
+      <c r="B333" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -3555,7 +3554,7 @@
       <c r="A334" s="1">
         <v>34759</v>
       </c>
-      <c r="B334" s="3">
+      <c r="B334" s="2">
         <v>2E-3</v>
       </c>
     </row>
@@ -3563,7 +3562,7 @@
       <c r="A335" s="1">
         <v>34790</v>
       </c>
-      <c r="B335" s="3">
+      <c r="B335" s="2">
         <v>2E-3</v>
       </c>
     </row>
@@ -3571,7 +3570,7 @@
       <c r="A336" s="1">
         <v>34820</v>
       </c>
-      <c r="B336" s="3">
+      <c r="B336" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -3579,7 +3578,7 @@
       <c r="A337" s="1">
         <v>34851</v>
       </c>
-      <c r="B337" s="3">
+      <c r="B337" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3587,7 +3586,7 @@
       <c r="A338" s="1">
         <v>34881</v>
       </c>
-      <c r="B338" s="3">
+      <c r="B338" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -3595,7 +3594,7 @@
       <c r="A339" s="1">
         <v>34912</v>
       </c>
-      <c r="B339" s="3">
+      <c r="B339" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3603,7 +3602,7 @@
       <c r="A340" s="1">
         <v>34943</v>
       </c>
-      <c r="B340" s="3">
+      <c r="B340" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3611,7 +3610,7 @@
       <c r="A341" s="1">
         <v>34973</v>
       </c>
-      <c r="B341" s="3">
+      <c r="B341" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -3619,7 +3618,7 @@
       <c r="A342" s="1">
         <v>35004</v>
       </c>
-      <c r="B342" s="3">
+      <c r="B342" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -3627,7 +3626,7 @@
       <c r="A343" s="1">
         <v>35034</v>
       </c>
-      <c r="B343" s="3">
+      <c r="B343" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -3635,7 +3634,7 @@
       <c r="A344" s="1">
         <v>35065</v>
       </c>
-      <c r="B344" s="3">
+      <c r="B344" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -3643,7 +3642,7 @@
       <c r="A345" s="1">
         <v>35096</v>
       </c>
-      <c r="B345" s="3">
+      <c r="B345" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3651,7 +3650,7 @@
       <c r="A346" s="1">
         <v>35125</v>
       </c>
-      <c r="B346" s="3">
+      <c r="B346" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3659,7 +3658,7 @@
       <c r="A347" s="1">
         <v>35156</v>
       </c>
-      <c r="B347" s="3">
+      <c r="B347" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -3667,7 +3666,7 @@
       <c r="A348" s="1">
         <v>35186</v>
       </c>
-      <c r="B348" s="3">
+      <c r="B348" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3675,7 +3674,7 @@
       <c r="A349" s="1">
         <v>35217</v>
       </c>
-      <c r="B349" s="3">
+      <c r="B349" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -3683,7 +3682,7 @@
       <c r="A350" s="1">
         <v>35247</v>
       </c>
-      <c r="B350" s="3">
+      <c r="B350" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -3691,7 +3690,7 @@
       <c r="A351" s="1">
         <v>35278</v>
       </c>
-      <c r="B351" s="3">
+      <c r="B351" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3699,7 +3698,7 @@
       <c r="A352" s="1">
         <v>35309</v>
       </c>
-      <c r="B352" s="3">
+      <c r="B352" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3707,7 +3706,7 @@
       <c r="A353" s="1">
         <v>35339</v>
       </c>
-      <c r="B353" s="3">
+      <c r="B353" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3715,7 +3714,7 @@
       <c r="A354" s="1">
         <v>35370</v>
       </c>
-      <c r="B354" s="3">
+      <c r="B354" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3723,7 +3722,7 @@
       <c r="A355" s="1">
         <v>35400</v>
       </c>
-      <c r="B355" s="3">
+      <c r="B355" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3731,7 +3730,7 @@
       <c r="A356" s="1">
         <v>35431</v>
       </c>
-      <c r="B356" s="3">
+      <c r="B356" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3739,7 +3738,7 @@
       <c r="A357" s="1">
         <v>35462</v>
       </c>
-      <c r="B357" s="3">
+      <c r="B357" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3747,7 +3746,7 @@
       <c r="A358" s="1">
         <v>35490</v>
       </c>
-      <c r="B358" s="3">
+      <c r="B358" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3755,7 +3754,7 @@
       <c r="A359" s="1">
         <v>35521</v>
       </c>
-      <c r="B359" s="3">
+      <c r="B359" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3763,7 +3762,7 @@
       <c r="A360" s="1">
         <v>35551</v>
       </c>
-      <c r="B360" s="3">
+      <c r="B360" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3771,7 +3770,7 @@
       <c r="A361" s="1">
         <v>35582</v>
       </c>
-      <c r="B361" s="3">
+      <c r="B361" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3779,7 +3778,7 @@
       <c r="A362" s="1">
         <v>35612</v>
       </c>
-      <c r="B362" s="3">
+      <c r="B362" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3787,7 +3786,7 @@
       <c r="A363" s="1">
         <v>35643</v>
       </c>
-      <c r="B363" s="3">
+      <c r="B363" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3795,7 +3794,7 @@
       <c r="A364" s="1">
         <v>35674</v>
       </c>
-      <c r="B364" s="3">
+      <c r="B364" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3803,7 +3802,7 @@
       <c r="A365" s="1">
         <v>35704</v>
       </c>
-      <c r="B365" s="3">
+      <c r="B365" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3811,7 +3810,7 @@
       <c r="A366" s="1">
         <v>35735</v>
       </c>
-      <c r="B366" s="3">
+      <c r="B366" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3819,7 +3818,7 @@
       <c r="A367" s="1">
         <v>35765</v>
       </c>
-      <c r="B367" s="3">
+      <c r="B367" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3827,7 +3826,7 @@
       <c r="A368" s="1">
         <v>35796</v>
       </c>
-      <c r="B368" s="3">
+      <c r="B368" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3835,7 +3834,7 @@
       <c r="A369" s="1">
         <v>35827</v>
       </c>
-      <c r="B369" s="3">
+      <c r="B369" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3843,7 +3842,7 @@
       <c r="A370" s="1">
         <v>35855</v>
       </c>
-      <c r="B370" s="3">
+      <c r="B370" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -3851,7 +3850,7 @@
       <c r="A371" s="1">
         <v>35886</v>
       </c>
-      <c r="B371" s="3">
+      <c r="B371" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -3859,7 +3858,7 @@
       <c r="A372" s="1">
         <v>35916</v>
       </c>
-      <c r="B372" s="3">
+      <c r="B372" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -3867,7 +3866,7 @@
       <c r="A373" s="1">
         <v>35947</v>
       </c>
-      <c r="B373" s="3">
+      <c r="B373" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
@@ -3875,7 +3874,7 @@
       <c r="A374" s="1">
         <v>35977</v>
       </c>
-      <c r="B374" s="3">
+      <c r="B374" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
@@ -3883,7 +3882,7 @@
       <c r="A375" s="1">
         <v>36008</v>
       </c>
-      <c r="B375" s="3">
+      <c r="B375" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3891,7 +3890,7 @@
       <c r="A376" s="1">
         <v>36039</v>
       </c>
-      <c r="B376" s="3">
+      <c r="B376" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3899,7 +3898,7 @@
       <c r="A377" s="1">
         <v>36069</v>
       </c>
-      <c r="B377" s="3">
+      <c r="B377" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3907,7 +3906,7 @@
       <c r="A378" s="1">
         <v>36100</v>
       </c>
-      <c r="B378" s="3">
+      <c r="B378" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3915,7 +3914,7 @@
       <c r="A379" s="1">
         <v>36130</v>
       </c>
-      <c r="B379" s="3">
+      <c r="B379" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3923,7 +3922,7 @@
       <c r="A380" s="1">
         <v>36161</v>
       </c>
-      <c r="B380" s="3">
+      <c r="B380" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3931,7 +3930,7 @@
       <c r="A381" s="1">
         <v>36192</v>
       </c>
-      <c r="B381" s="3">
+      <c r="B381" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3939,7 +3938,7 @@
       <c r="A382" s="1">
         <v>36220</v>
       </c>
-      <c r="B382" s="3">
+      <c r="B382" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -3947,7 +3946,7 @@
       <c r="A383" s="1">
         <v>36251</v>
       </c>
-      <c r="B383" s="3">
+      <c r="B383" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3955,7 +3954,7 @@
       <c r="A384" s="1">
         <v>36281</v>
       </c>
-      <c r="B384" s="3">
+      <c r="B384" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3963,7 +3962,7 @@
       <c r="A385" s="1">
         <v>36312</v>
       </c>
-      <c r="B385" s="3">
+      <c r="B385" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3971,7 +3970,7 @@
       <c r="A386" s="1">
         <v>36342</v>
       </c>
-      <c r="B386" s="3">
+      <c r="B386" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3979,7 +3978,7 @@
       <c r="A387" s="1">
         <v>36373</v>
       </c>
-      <c r="B387" s="3">
+      <c r="B387" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3987,7 +3986,7 @@
       <c r="A388" s="1">
         <v>36404</v>
       </c>
-      <c r="B388" s="3">
+      <c r="B388" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -3995,7 +3994,7 @@
       <c r="A389" s="1">
         <v>36434</v>
       </c>
-      <c r="B389" s="3">
+      <c r="B389" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4003,7 +4002,7 @@
       <c r="A390" s="1">
         <v>36465</v>
       </c>
-      <c r="B390" s="3">
+      <c r="B390" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4011,7 +4010,7 @@
       <c r="A391" s="1">
         <v>36495</v>
       </c>
-      <c r="B391" s="3">
+      <c r="B391" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4019,7 +4018,7 @@
       <c r="A392" s="1">
         <v>36526</v>
       </c>
-      <c r="B392" s="3">
+      <c r="B392" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -4027,7 +4026,7 @@
       <c r="A393" s="1">
         <v>36557</v>
       </c>
-      <c r="B393" s="3">
+      <c r="B393" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -4035,7 +4034,7 @@
       <c r="A394" s="1">
         <v>36586</v>
       </c>
-      <c r="B394" s="3">
+      <c r="B394" s="2">
         <v>0</v>
       </c>
     </row>
@@ -4043,7 +4042,7 @@
       <c r="A395" s="1">
         <v>36617</v>
       </c>
-      <c r="B395" s="3">
+      <c r="B395" s="2">
         <v>1E-3</v>
       </c>
     </row>
@@ -4051,7 +4050,7 @@
       <c r="A396" s="1">
         <v>36647</v>
       </c>
-      <c r="B396" s="3">
+      <c r="B396" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -4059,7 +4058,7 @@
       <c r="A397" s="1">
         <v>36678</v>
       </c>
-      <c r="B397" s="3">
+      <c r="B397" s="2">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
@@ -4067,7 +4066,7 @@
       <c r="A398" s="1">
         <v>36708</v>
       </c>
-      <c r="B398" s="3">
+      <c r="B398" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
@@ -4075,7 +4074,7 @@
       <c r="A399" s="1">
         <v>36739</v>
       </c>
-      <c r="B399" s="3">
+      <c r="B399" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
@@ -4083,7 +4082,7 @@
       <c r="A400" s="1">
         <v>36770</v>
       </c>
-      <c r="B400" s="3">
+      <c r="B400" s="2">
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
@@ -4091,7 +4090,7 @@
       <c r="A401" s="1">
         <v>36800</v>
       </c>
-      <c r="B401" s="3">
+      <c r="B401" s="2">
         <v>2.4E-2</v>
       </c>
     </row>
@@ -4099,7 +4098,7 @@
       <c r="A402" s="1">
         <v>36831</v>
       </c>
-      <c r="B402" s="3">
+      <c r="B402" s="2">
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
@@ -4107,2359 +4106,2359 @@
       <c r="A403" s="1">
         <v>36861</v>
       </c>
-      <c r="B403" s="3">
+      <c r="B403" s="2">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A404" s="2">
+      <c r="A404" s="1">
+        <v>36892</v>
+      </c>
+      <c r="B404" s="2">
+        <v>0.14799999999999999</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A405" s="1">
+        <v>36923</v>
+      </c>
+      <c r="B405" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A406" s="1">
+        <v>36951</v>
+      </c>
+      <c r="B406" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A407" s="1">
+        <v>36982</v>
+      </c>
+      <c r="B407" s="2">
+        <v>0.30599999999999999</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A408" s="1">
+        <v>37012</v>
+      </c>
+      <c r="B408" s="2">
+        <v>0.29899999999999999</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A409" s="1">
+        <v>37043</v>
+      </c>
+      <c r="B409" s="2">
+        <v>0.30499999999999999</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A410" s="1">
+        <v>37073</v>
+      </c>
+      <c r="B410" s="2">
+        <v>0.29699999999999999</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A411" s="1">
+        <v>37104</v>
+      </c>
+      <c r="B411" s="2">
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A412" s="1">
+        <v>37135</v>
+      </c>
+      <c r="B412" s="2">
+        <v>0.27700000000000002</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A413" s="1">
+        <v>37165</v>
+      </c>
+      <c r="B413" s="2">
+        <v>0.21099999999999999</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A414" s="1">
+        <v>37196</v>
+      </c>
+      <c r="B414" s="2">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A415" s="1">
+        <v>37226</v>
+      </c>
+      <c r="B415" s="2">
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A416" s="1">
+        <v>37257</v>
+      </c>
+      <c r="B416" s="2">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A417" s="1">
+        <v>37288</v>
+      </c>
+      <c r="B417" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A418" s="1">
+        <v>37316</v>
+      </c>
+      <c r="B418" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A419" s="1">
+        <v>37347</v>
+      </c>
+      <c r="B419" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A420" s="1">
+        <v>37377</v>
+      </c>
+      <c r="B420" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A421" s="1">
+        <v>37408</v>
+      </c>
+      <c r="B421" s="2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A422" s="1">
+        <v>37438</v>
+      </c>
+      <c r="B422" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A423" s="1">
+        <v>37469</v>
+      </c>
+      <c r="B423" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A424" s="1">
+        <v>37500</v>
+      </c>
+      <c r="B424" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A425" s="1">
+        <v>37530</v>
+      </c>
+      <c r="B425" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A426" s="1">
+        <v>37561</v>
+      </c>
+      <c r="B426" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A427" s="1">
+        <v>37591</v>
+      </c>
+      <c r="B427" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A428" s="1">
+        <v>37622</v>
+      </c>
+      <c r="B428" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A429" s="1">
+        <v>37653</v>
+      </c>
+      <c r="B429" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A430" s="1">
+        <v>37681</v>
+      </c>
+      <c r="B430" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A431" s="1">
+        <v>37712</v>
+      </c>
+      <c r="B431" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A432" s="1">
+        <v>37742</v>
+      </c>
+      <c r="B432" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A433" s="1">
+        <v>37773</v>
+      </c>
+      <c r="B433" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A434" s="1">
+        <v>37803</v>
+      </c>
+      <c r="B434" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A435" s="1">
+        <v>37834</v>
+      </c>
+      <c r="B435" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A436" s="1">
+        <v>37865</v>
+      </c>
+      <c r="B436" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A437" s="1">
+        <v>37895</v>
+      </c>
+      <c r="B437" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A438" s="1">
+        <v>37926</v>
+      </c>
+      <c r="B438" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A439" s="1">
+        <v>37956</v>
+      </c>
+      <c r="B439" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A440" s="1">
+        <v>37987</v>
+      </c>
+      <c r="B440" s="2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A441" s="1">
+        <v>38018</v>
+      </c>
+      <c r="B441" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A442" s="1">
+        <v>38047</v>
+      </c>
+      <c r="B442" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A443" s="1">
+        <v>38078</v>
+      </c>
+      <c r="B443" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A444" s="1">
+        <v>38108</v>
+      </c>
+      <c r="B444" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A445" s="1">
+        <v>38139</v>
+      </c>
+      <c r="B445" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A446" s="1">
+        <v>38169</v>
+      </c>
+      <c r="B446" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A447" s="1">
+        <v>38200</v>
+      </c>
+      <c r="B447" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A448" s="1">
+        <v>38231</v>
+      </c>
+      <c r="B448" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A449" s="1">
+        <v>38261</v>
+      </c>
+      <c r="B449" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A450" s="1">
+        <v>38292</v>
+      </c>
+      <c r="B450" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A451" s="1">
+        <v>38322</v>
+      </c>
+      <c r="B451" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A452" s="1">
+        <v>38353</v>
+      </c>
+      <c r="B452" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A453" s="1">
+        <v>38384</v>
+      </c>
+      <c r="B453" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A454" s="1">
+        <v>38412</v>
+      </c>
+      <c r="B454" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A455" s="1">
+        <v>38443</v>
+      </c>
+      <c r="B455" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A456" s="1">
+        <v>38473</v>
+      </c>
+      <c r="B456" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A457" s="1">
+        <v>38504</v>
+      </c>
+      <c r="B457" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A458" s="1">
+        <v>38534</v>
+      </c>
+      <c r="B458" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A459" s="1">
+        <v>38565</v>
+      </c>
+      <c r="B459" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A460" s="1">
+        <v>38596</v>
+      </c>
+      <c r="B460" s="2">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A461" s="1">
+        <v>38626</v>
+      </c>
+      <c r="B461" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A462" s="1">
+        <v>38657</v>
+      </c>
+      <c r="B462" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A463" s="1">
+        <v>38687</v>
+      </c>
+      <c r="B463" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A464" s="1">
+        <v>38718</v>
+      </c>
+      <c r="B464" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A465" s="1">
+        <v>38749</v>
+      </c>
+      <c r="B465" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A466" s="1">
+        <v>38777</v>
+      </c>
+      <c r="B466" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A467" s="1">
+        <v>38808</v>
+      </c>
+      <c r="B467" s="2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A468" s="1">
+        <v>38838</v>
+      </c>
+      <c r="B468" s="2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A469" s="1">
+        <v>38869</v>
+      </c>
+      <c r="B469" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A470" s="1">
+        <v>38899</v>
+      </c>
+      <c r="B470" s="2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A471" s="1">
+        <v>38930</v>
+      </c>
+      <c r="B471" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A472" s="1">
+        <v>38961</v>
+      </c>
+      <c r="B472" s="2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A473" s="1">
+        <v>38991</v>
+      </c>
+      <c r="B473" s="2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A474" s="1">
+        <v>39022</v>
+      </c>
+      <c r="B474" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A475" s="1">
+        <v>39052</v>
+      </c>
+      <c r="B475" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A476" s="1">
+        <v>39083</v>
+      </c>
+      <c r="B476" s="2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A477" s="1">
+        <v>39114</v>
+      </c>
+      <c r="B477" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A478" s="1">
+        <v>39142</v>
+      </c>
+      <c r="B478" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A479" s="1">
+        <v>39173</v>
+      </c>
+      <c r="B479" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A480" s="1">
+        <v>39203</v>
+      </c>
+      <c r="B480" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A481" s="1">
+        <v>39234</v>
+      </c>
+      <c r="B481" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A482" s="1">
+        <v>39264</v>
+      </c>
+      <c r="B482" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A483" s="1">
+        <v>39295</v>
+      </c>
+      <c r="B483" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A484" s="1">
+        <v>39326</v>
+      </c>
+      <c r="B484" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A485" s="1">
+        <v>39356</v>
+      </c>
+      <c r="B485" s="2">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A486" s="1">
+        <v>39387</v>
+      </c>
+      <c r="B486" s="2">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A487" s="1">
+        <v>39417</v>
+      </c>
+      <c r="B487" s="2">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A488" s="1">
+        <v>39448</v>
+      </c>
+      <c r="B488" s="2">
+        <v>0.19500000000000001</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A489" s="1">
+        <v>39479</v>
+      </c>
+      <c r="B489" s="2">
+        <v>0.443</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A490" s="1">
+        <v>39508</v>
+      </c>
+      <c r="B490" s="2">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A491" s="1">
+        <v>39539</v>
+      </c>
+      <c r="B491" s="2">
+        <v>0.76900000000000002</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A492" s="1">
+        <v>39569</v>
+      </c>
+      <c r="B492" s="2">
+        <v>0.84099999999999997</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A493" s="1">
+        <v>39600</v>
+      </c>
+      <c r="B493" s="2">
+        <v>0.88700000000000001</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A494" s="1">
+        <v>39630</v>
+      </c>
+      <c r="B494" s="2">
+        <v>0.96599999999999997</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A495" s="1">
+        <v>39661</v>
+      </c>
+      <c r="B495" s="2">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A496" s="1">
+        <v>39692</v>
+      </c>
+      <c r="B496" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A497" s="1">
+        <v>39722</v>
+      </c>
+      <c r="B497" s="2">
+        <v>0.91900000000000004</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A498" s="1">
+        <v>39753</v>
+      </c>
+      <c r="B498" s="2">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A499" s="1">
+        <v>39783</v>
+      </c>
+      <c r="B499" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A500" s="1">
+        <v>39814</v>
+      </c>
+      <c r="B500" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A501" s="1">
+        <v>39845</v>
+      </c>
+      <c r="B501" s="2">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A502" s="1">
+        <v>39873</v>
+      </c>
+      <c r="B502" s="2">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A503" s="1">
+        <v>39904</v>
+      </c>
+      <c r="B503" s="2">
+        <v>0.97399999999999998</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A504" s="1">
+        <v>39934</v>
+      </c>
+      <c r="B504" s="2">
+        <v>0.89700000000000002</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A505" s="1">
+        <v>39965</v>
+      </c>
+      <c r="B505" s="2">
+        <v>0.68200000000000005</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A506" s="1">
+        <v>39995</v>
+      </c>
+      <c r="B506" s="2">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A507" s="1">
+        <v>40026</v>
+      </c>
+      <c r="B507" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A508" s="1">
+        <v>40057</v>
+      </c>
+      <c r="B508" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A509" s="1">
+        <v>40087</v>
+      </c>
+      <c r="B509" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A510" s="1">
+        <v>40118</v>
+      </c>
+      <c r="B510" s="2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A511" s="1">
+        <v>40148</v>
+      </c>
+      <c r="B511" s="2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A512" s="1">
+        <v>40179</v>
+      </c>
+      <c r="B512" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A513" s="1">
+        <v>40210</v>
+      </c>
+      <c r="B513" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A514" s="1">
+        <v>40238</v>
+      </c>
+      <c r="B514" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A515" s="1">
+        <v>40269</v>
+      </c>
+      <c r="B515" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A516" s="1">
+        <v>40299</v>
+      </c>
+      <c r="B516" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A517" s="1">
+        <v>40330</v>
+      </c>
+      <c r="B517" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A518" s="1">
+        <v>40360</v>
+      </c>
+      <c r="B518" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A519" s="1">
+        <v>40391</v>
+      </c>
+      <c r="B519" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A520" s="1">
+        <v>40422</v>
+      </c>
+      <c r="B520" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A521" s="1">
+        <v>40452</v>
+      </c>
+      <c r="B521" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A522" s="1">
+        <v>40483</v>
+      </c>
+      <c r="B522" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A523" s="1">
+        <v>40513</v>
+      </c>
+      <c r="B523" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A524" s="1">
+        <v>40544</v>
+      </c>
+      <c r="B524" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A525" s="1">
+        <v>40575</v>
+      </c>
+      <c r="B525" s="2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A526" s="1">
+        <v>40603</v>
+      </c>
+      <c r="B526" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A527" s="1">
+        <v>40634</v>
+      </c>
+      <c r="B527" s="2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A528" s="1">
+        <v>40664</v>
+      </c>
+      <c r="B528" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A529" s="1">
+        <v>40695</v>
+      </c>
+      <c r="B529" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A530" s="1">
+        <v>40725</v>
+      </c>
+      <c r="B530" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A531" s="1">
+        <v>40756</v>
+      </c>
+      <c r="B531" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A532" s="1">
+        <v>40787</v>
+      </c>
+      <c r="B532" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A533" s="1">
+        <v>40817</v>
+      </c>
+      <c r="B533" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A534" s="1">
+        <v>40848</v>
+      </c>
+      <c r="B534" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A535" s="1">
+        <v>40878</v>
+      </c>
+      <c r="B535" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A536" s="1">
+        <v>40909</v>
+      </c>
+      <c r="B536" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A537" s="1">
+        <v>40940</v>
+      </c>
+      <c r="B537" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A538" s="1">
+        <v>40969</v>
+      </c>
+      <c r="B538" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A539" s="1">
+        <v>41000</v>
+      </c>
+      <c r="B539" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A540" s="1">
+        <v>41030</v>
+      </c>
+      <c r="B540" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A541" s="1">
+        <v>41061</v>
+      </c>
+      <c r="B541" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A542" s="1">
+        <v>41091</v>
+      </c>
+      <c r="B542" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A543" s="1">
+        <v>41122</v>
+      </c>
+      <c r="B543" s="2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A544" s="1">
+        <v>41153</v>
+      </c>
+      <c r="B544" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A545" s="1">
+        <v>41183</v>
+      </c>
+      <c r="B545" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A546" s="1">
+        <v>41214</v>
+      </c>
+      <c r="B546" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A547" s="1">
+        <v>41244</v>
+      </c>
+      <c r="B547" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A548" s="1">
+        <v>41275</v>
+      </c>
+      <c r="B548" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A549" s="1">
+        <v>41306</v>
+      </c>
+      <c r="B549" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A550" s="1">
+        <v>41334</v>
+      </c>
+      <c r="B550" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A551" s="1">
+        <v>41365</v>
+      </c>
+      <c r="B551" s="2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A552" s="1">
+        <v>41395</v>
+      </c>
+      <c r="B552" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A553" s="1">
+        <v>41426</v>
+      </c>
+      <c r="B553" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A554" s="1">
+        <v>41456</v>
+      </c>
+      <c r="B554" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A555" s="1">
+        <v>41487</v>
+      </c>
+      <c r="B555" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A556" s="1">
+        <v>41518</v>
+      </c>
+      <c r="B556" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A557" s="1">
+        <v>41548</v>
+      </c>
+      <c r="B557" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A558" s="1">
+        <v>41579</v>
+      </c>
+      <c r="B558" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A559" s="1">
+        <v>41609</v>
+      </c>
+      <c r="B559" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A560" s="1">
+        <v>41640</v>
+      </c>
+      <c r="B560" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A561" s="1">
+        <v>41671</v>
+      </c>
+      <c r="B561" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A562" s="1">
+        <v>41699</v>
+      </c>
+      <c r="B562" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A563" s="1">
+        <v>41730</v>
+      </c>
+      <c r="B563" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A564" s="1">
+        <v>41760</v>
+      </c>
+      <c r="B564" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A565" s="1">
+        <v>41791</v>
+      </c>
+      <c r="B565" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A566" s="1">
+        <v>41821</v>
+      </c>
+      <c r="B566" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A567" s="1">
+        <v>41852</v>
+      </c>
+      <c r="B567" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A568" s="1">
+        <v>41883</v>
+      </c>
+      <c r="B568" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A569" s="1">
+        <v>41913</v>
+      </c>
+      <c r="B569" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A570" s="1">
+        <v>41944</v>
+      </c>
+      <c r="B570" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A571" s="1">
+        <v>41974</v>
+      </c>
+      <c r="B571" s="2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A572" s="1">
+        <v>42005</v>
+      </c>
+      <c r="B572" s="2">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A573" s="1">
+        <v>42036</v>
+      </c>
+      <c r="B573" s="2">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A574" s="1">
+        <v>42064</v>
+      </c>
+      <c r="B574" s="2">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A575" s="1">
+        <v>42095</v>
+      </c>
+      <c r="B575" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A576" s="1">
+        <v>42125</v>
+      </c>
+      <c r="B576" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A577" s="1">
+        <v>42156</v>
+      </c>
+      <c r="B577" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A578" s="1">
+        <v>42186</v>
+      </c>
+      <c r="B578" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A579" s="1">
+        <v>42217</v>
+      </c>
+      <c r="B579" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A580" s="1">
+        <v>42248</v>
+      </c>
+      <c r="B580" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A581" s="1">
+        <v>42278</v>
+      </c>
+      <c r="B581" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A582" s="1">
+        <v>42309</v>
+      </c>
+      <c r="B582" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A583" s="1">
+        <v>42339</v>
+      </c>
+      <c r="B583" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A584" s="1">
+        <v>42370</v>
+      </c>
+      <c r="B584" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A585" s="1">
+        <v>42401</v>
+      </c>
+      <c r="B585" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A586" s="1">
+        <v>42430</v>
+      </c>
+      <c r="B586" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A587" s="1">
+        <v>42461</v>
+      </c>
+      <c r="B587" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A588" s="1">
+        <v>42491</v>
+      </c>
+      <c r="B588" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A589" s="1">
+        <v>42522</v>
+      </c>
+      <c r="B589" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A590" s="1">
+        <v>42552</v>
+      </c>
+      <c r="B590" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A591" s="1">
+        <v>42583</v>
+      </c>
+      <c r="B591" s="2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A592" s="1">
+        <v>42614</v>
+      </c>
+      <c r="B592" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A593" s="1">
+        <v>42644</v>
+      </c>
+      <c r="B593" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A594" s="1">
+        <v>42675</v>
+      </c>
+      <c r="B594" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A595" s="1">
+        <v>42705</v>
+      </c>
+      <c r="B595" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A596" s="1">
+        <v>42736</v>
+      </c>
+      <c r="B596" s="2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A597" s="1">
+        <v>42767</v>
+      </c>
+      <c r="B597" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A598" s="1">
+        <v>42795</v>
+      </c>
+      <c r="B598" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A599" s="1">
+        <v>42826</v>
+      </c>
+      <c r="B599" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A600" s="1">
+        <v>42856</v>
+      </c>
+      <c r="B600" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A601" s="1">
+        <v>42887</v>
+      </c>
+      <c r="B601" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A602" s="1">
+        <v>42917</v>
+      </c>
+      <c r="B602" s="2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A603" s="1">
+        <v>42948</v>
+      </c>
+      <c r="B603" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A604" s="1">
+        <v>42979</v>
+      </c>
+      <c r="B604" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A605" s="1">
+        <v>43009</v>
+      </c>
+      <c r="B605" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A606" s="1">
+        <v>43040</v>
+      </c>
+      <c r="B606" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A607" s="1">
+        <v>43070</v>
+      </c>
+      <c r="B607" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A608" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B608" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A609" s="1">
+        <v>43132</v>
+      </c>
+      <c r="B609" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A610" s="1">
+        <v>43160</v>
+      </c>
+      <c r="B610" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A611" s="1">
+        <v>43191</v>
+      </c>
+      <c r="B611" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A612" s="1">
+        <v>43221</v>
+      </c>
+      <c r="B612" s="2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A613" s="1">
+        <v>43252</v>
+      </c>
+      <c r="B613" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A614" s="1">
+        <v>43282</v>
+      </c>
+      <c r="B614" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A615" s="1">
+        <v>43313</v>
+      </c>
+      <c r="B615" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A616" s="1">
+        <v>43344</v>
+      </c>
+      <c r="B616" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A617" s="1">
+        <v>43374</v>
+      </c>
+      <c r="B617" s="2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A618" s="1">
+        <v>43405</v>
+      </c>
+      <c r="B618" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A619" s="1">
+        <v>43435</v>
+      </c>
+      <c r="B619" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A620" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B620" s="2">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A621" s="1">
+        <v>43497</v>
+      </c>
+      <c r="B621" s="2">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A622" s="1">
+        <v>43525</v>
+      </c>
+      <c r="B622" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A623" s="1">
+        <v>43556</v>
+      </c>
+      <c r="B623" s="2">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A624" s="1">
+        <v>43586</v>
+      </c>
+      <c r="B624" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A625" s="1">
+        <v>43617</v>
+      </c>
+      <c r="B625" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A626" s="1">
+        <v>43647</v>
+      </c>
+      <c r="B626" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A627" s="1">
+        <v>43678</v>
+      </c>
+      <c r="B627" s="2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A628" s="1">
+        <v>43709</v>
+      </c>
+      <c r="B628" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A629" s="1">
+        <v>43739</v>
+      </c>
+      <c r="B629" s="2">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A630" s="1">
+        <v>43770</v>
+      </c>
+      <c r="B630" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A631" s="1">
+        <v>43800</v>
+      </c>
+      <c r="B631" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A632" s="1">
+        <v>43831</v>
+      </c>
+      <c r="B632" s="2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A633" s="1">
+        <v>43862</v>
+      </c>
+      <c r="B633" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A634" s="1">
+        <v>43891</v>
+      </c>
+      <c r="B634" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A635" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B635" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A636" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B636" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A637" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B637" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A638" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B638" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A639" s="1">
+        <v>44044</v>
+      </c>
+      <c r="B639" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A640" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B640" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A641" s="1">
+        <v>44105</v>
+      </c>
+      <c r="B641" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A642" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B642" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A643" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B643" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A644" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B644" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A645" s="1">
+        <v>44228</v>
+      </c>
+      <c r="B645" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A646" s="1">
+        <v>44256</v>
+      </c>
+      <c r="B646" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A647" s="1">
+        <v>44287</v>
+      </c>
+      <c r="B647" s="2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A648" s="1">
+        <v>44317</v>
+      </c>
+      <c r="B648" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A649" s="1">
+        <v>44348</v>
+      </c>
+      <c r="B649" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A650" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B650" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A651" s="1">
+        <v>44409</v>
+      </c>
+      <c r="B651" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A652" s="1">
+        <v>44440</v>
+      </c>
+      <c r="B652" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A653" s="1">
+        <v>44470</v>
+      </c>
+      <c r="B653" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A654" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B654" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A655" s="1">
+        <v>44531</v>
+      </c>
+      <c r="B655" s="2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A656" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B656" s="2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A657" s="1">
+        <v>44593</v>
+      </c>
+      <c r="B657" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A658" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B658" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A659" s="1">
+        <v>44652</v>
+      </c>
+      <c r="B659" s="2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A660" s="1">
+        <v>44682</v>
+      </c>
+      <c r="B660" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A661" s="1">
+        <v>44713</v>
+      </c>
+      <c r="B661" s="2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A662" s="1">
+        <v>44743</v>
+      </c>
+      <c r="B662" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A663" s="1">
+        <v>44774</v>
+      </c>
+      <c r="B663" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A664" s="1">
+        <v>44805</v>
+      </c>
+      <c r="B664" s="2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A665" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B665" s="2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A666" s="1">
+        <v>44866</v>
+      </c>
+      <c r="B666" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A667" s="1">
+        <v>44896</v>
+      </c>
+      <c r="B667" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A668" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B668" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A669" s="1">
+        <v>44958</v>
+      </c>
+      <c r="B669" s="2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A670" s="1">
+        <v>44986</v>
+      </c>
+      <c r="B670" s="2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A671" s="1">
+        <v>45017</v>
+      </c>
+      <c r="B671" s="2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A672" s="1">
+        <v>45047</v>
+      </c>
+      <c r="B672" s="2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A673" s="1">
+        <v>45078</v>
+      </c>
+      <c r="B673" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A674" s="1">
+        <v>45108</v>
+      </c>
+      <c r="B674" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A675" s="1">
+        <v>45139</v>
+      </c>
+      <c r="B675" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A676" s="1">
+        <v>45170</v>
+      </c>
+      <c r="B676" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A677" s="1">
+        <v>45200</v>
+      </c>
+      <c r="B677" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A678" s="1">
+        <v>45231</v>
+      </c>
+      <c r="B678" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A679" s="1">
+        <v>45261</v>
+      </c>
+      <c r="B679" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A680" s="1">
+        <v>45292</v>
+      </c>
+      <c r="B680" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A681" s="1">
+        <v>45323</v>
+      </c>
+      <c r="B681" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A682" s="1">
+        <v>45352</v>
+      </c>
+      <c r="B682" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A683" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B683" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A684" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B684" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A685" s="1">
+        <v>45444</v>
+      </c>
+      <c r="B685" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A686" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B686" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A687" s="1">
+        <v>45505</v>
+      </c>
+      <c r="B687" s="2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A688" s="1">
+        <v>45536</v>
+      </c>
+      <c r="B688" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A689" s="1">
+        <v>45566</v>
+      </c>
+      <c r="B689" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A690" s="1">
+        <v>45597</v>
+      </c>
+      <c r="B690" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A691" s="1">
+        <v>45627</v>
+      </c>
+      <c r="B691" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A692" s="1">
         <v>45658</v>
       </c>
-      <c r="B404" s="3">
-        <v>0.14799999999999999</v>
-      </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A405" s="2">
+      <c r="B692" s="2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A693" s="1">
         <v>45689</v>
       </c>
-      <c r="B405" s="3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A406" s="2">
+      <c r="B693" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A694" s="1">
         <v>45717</v>
       </c>
-      <c r="B406" s="3">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A407" s="2">
+      <c r="B694" s="2">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A695" s="1">
         <v>45748</v>
       </c>
-      <c r="B407" s="3">
-        <v>0.30599999999999999</v>
-      </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A408" s="2">
+      <c r="B695" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A696" s="1">
         <v>45778</v>
       </c>
-      <c r="B408" s="3">
-        <v>0.29899999999999999</v>
-      </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A409" s="2">
+      <c r="B696" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A697" s="1">
         <v>45809</v>
       </c>
-      <c r="B409" s="3">
-        <v>0.30499999999999999</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A410" s="2">
-        <v>45839</v>
-      </c>
-      <c r="B410" s="3">
-        <v>0.29699999999999999</v>
-      </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A411" s="2">
-        <v>45870</v>
-      </c>
-      <c r="B411" s="3">
-        <v>0.27600000000000002</v>
-      </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A412" s="2">
-        <v>45901</v>
-      </c>
-      <c r="B412" s="3">
-        <v>0.27700000000000002</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A413" s="2">
-        <v>45931</v>
-      </c>
-      <c r="B413" s="3">
-        <v>0.21099999999999999</v>
-      </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A414" s="2">
-        <v>45962</v>
-      </c>
-      <c r="B414" s="3">
-        <v>0.161</v>
-      </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A415" s="2">
-        <v>45992</v>
-      </c>
-      <c r="B415" s="3">
-        <v>6.6000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A416" s="2">
-        <v>45659</v>
-      </c>
-      <c r="B416" s="3">
-        <v>2.4E-2</v>
-      </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A417" s="2">
-        <v>45690</v>
-      </c>
-      <c r="B417" s="3">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A418" s="2">
-        <v>45718</v>
-      </c>
-      <c r="B418" s="3">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A419" s="2">
-        <v>45749</v>
-      </c>
-      <c r="B419" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A420" s="2">
-        <v>45779</v>
-      </c>
-      <c r="B420" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A421" s="2">
-        <v>45810</v>
-      </c>
-      <c r="B421" s="3">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A422" s="2">
-        <v>45840</v>
-      </c>
-      <c r="B422" s="3">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A423" s="2">
-        <v>45871</v>
-      </c>
-      <c r="B423" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A424" s="2">
-        <v>45902</v>
-      </c>
-      <c r="B424" s="3">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A425" s="2">
-        <v>45932</v>
-      </c>
-      <c r="B425" s="3">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A426" s="2">
-        <v>45963</v>
-      </c>
-      <c r="B426" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A427" s="2">
-        <v>45993</v>
-      </c>
-      <c r="B427" s="3">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A428" s="2">
-        <v>45660</v>
-      </c>
-      <c r="B428" s="3">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A429" s="2">
-        <v>45691</v>
-      </c>
-      <c r="B429" s="3">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A430" s="2">
-        <v>45719</v>
-      </c>
-      <c r="B430" s="3">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A431" s="2">
-        <v>45750</v>
-      </c>
-      <c r="B431" s="3">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A432" s="2">
-        <v>45780</v>
-      </c>
-      <c r="B432" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A433" s="2">
-        <v>45811</v>
-      </c>
-      <c r="B433" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A434" s="2">
-        <v>45841</v>
-      </c>
-      <c r="B434" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A435" s="2">
-        <v>45872</v>
-      </c>
-      <c r="B435" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A436" s="2">
-        <v>45903</v>
-      </c>
-      <c r="B436" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A437" s="2">
-        <v>45933</v>
-      </c>
-      <c r="B437" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A438" s="2">
-        <v>45964</v>
-      </c>
-      <c r="B438" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A439" s="2">
-        <v>45994</v>
-      </c>
-      <c r="B439" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A440" s="2">
-        <v>45661</v>
-      </c>
-      <c r="B440" s="3">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A441" s="2">
-        <v>45692</v>
-      </c>
-      <c r="B441" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A442" s="2">
-        <v>45720</v>
-      </c>
-      <c r="B442" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A443" s="2">
-        <v>45751</v>
-      </c>
-      <c r="B443" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A444" s="2">
-        <v>45781</v>
-      </c>
-      <c r="B444" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A445" s="2">
-        <v>45812</v>
-      </c>
-      <c r="B445" s="3">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A446" s="2">
-        <v>45842</v>
-      </c>
-      <c r="B446" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A447" s="2">
-        <v>45873</v>
-      </c>
-      <c r="B447" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A448" s="2">
-        <v>45904</v>
-      </c>
-      <c r="B448" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A449" s="2">
-        <v>45934</v>
-      </c>
-      <c r="B449" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A450" s="2">
-        <v>45965</v>
-      </c>
-      <c r="B450" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A451" s="2">
-        <v>45995</v>
-      </c>
-      <c r="B451" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A452" s="2">
-        <v>45662</v>
-      </c>
-      <c r="B452" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A453" s="2">
-        <v>45693</v>
-      </c>
-      <c r="B453" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A454" s="2">
-        <v>45721</v>
-      </c>
-      <c r="B454" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A455" s="2">
-        <v>45752</v>
-      </c>
-      <c r="B455" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A456" s="2">
-        <v>45782</v>
-      </c>
-      <c r="B456" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A457" s="2">
-        <v>45813</v>
-      </c>
-      <c r="B457" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A458" s="2">
-        <v>45843</v>
-      </c>
-      <c r="B458" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A459" s="2">
-        <v>45874</v>
-      </c>
-      <c r="B459" s="3">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A460" s="2">
-        <v>45905</v>
-      </c>
-      <c r="B460" s="3">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A461" s="2">
-        <v>45935</v>
-      </c>
-      <c r="B461" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A462" s="2">
-        <v>45966</v>
-      </c>
-      <c r="B462" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A463" s="2">
-        <v>45996</v>
-      </c>
-      <c r="B463" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A464" s="2">
-        <v>45663</v>
-      </c>
-      <c r="B464" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A465" s="2">
-        <v>45694</v>
-      </c>
-      <c r="B465" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A466" s="2">
-        <v>45722</v>
-      </c>
-      <c r="B466" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A467" s="2">
-        <v>45753</v>
-      </c>
-      <c r="B467" s="3">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A468" s="2">
-        <v>45783</v>
-      </c>
-      <c r="B468" s="3">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A469" s="2">
-        <v>45814</v>
-      </c>
-      <c r="B469" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A470" s="2">
-        <v>45844</v>
-      </c>
-      <c r="B470" s="3">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A471" s="2">
-        <v>45875</v>
-      </c>
-      <c r="B471" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A472" s="2">
-        <v>45906</v>
-      </c>
-      <c r="B472" s="3">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A473" s="2">
-        <v>45936</v>
-      </c>
-      <c r="B473" s="3">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A474" s="2">
-        <v>45967</v>
-      </c>
-      <c r="B474" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A475" s="2">
-        <v>45997</v>
-      </c>
-      <c r="B475" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A476" s="2">
-        <v>45664</v>
-      </c>
-      <c r="B476" s="3">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A477" s="2">
-        <v>45695</v>
-      </c>
-      <c r="B477" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A478" s="2">
-        <v>45723</v>
-      </c>
-      <c r="B478" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A479" s="2">
-        <v>45754</v>
-      </c>
-      <c r="B479" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A480" s="2">
-        <v>45784</v>
-      </c>
-      <c r="B480" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A481" s="2">
-        <v>45815</v>
-      </c>
-      <c r="B481" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A482" s="2">
-        <v>45845</v>
-      </c>
-      <c r="B482" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A483" s="2">
-        <v>45876</v>
-      </c>
-      <c r="B483" s="3">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A484" s="2">
-        <v>45907</v>
-      </c>
-      <c r="B484" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A485" s="2">
-        <v>45937</v>
-      </c>
-      <c r="B485" s="3">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A486" s="2">
-        <v>45968</v>
-      </c>
-      <c r="B486" s="3">
-        <v>1.9E-2</v>
-      </c>
-    </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A487" s="2">
-        <v>45998</v>
-      </c>
-      <c r="B487" s="3">
-        <v>6.4000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A488" s="2">
-        <v>45665</v>
-      </c>
-      <c r="B488" s="3">
-        <v>0.19500000000000001</v>
-      </c>
-    </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A489" s="2">
-        <v>45696</v>
-      </c>
-      <c r="B489" s="3">
-        <v>0.443</v>
-      </c>
-    </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A490" s="2">
-        <v>45724</v>
-      </c>
-      <c r="B490" s="3">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A491" s="2">
-        <v>45755</v>
-      </c>
-      <c r="B491" s="3">
-        <v>0.76900000000000002</v>
-      </c>
-    </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A492" s="2">
-        <v>45785</v>
-      </c>
-      <c r="B492" s="3">
-        <v>0.84099999999999997</v>
-      </c>
-    </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A493" s="2">
-        <v>45816</v>
-      </c>
-      <c r="B493" s="3">
-        <v>0.88700000000000001</v>
-      </c>
-    </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A494" s="2">
-        <v>45846</v>
-      </c>
-      <c r="B494" s="3">
-        <v>0.96599999999999997</v>
-      </c>
-    </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A495" s="2">
-        <v>45877</v>
-      </c>
-      <c r="B495" s="3">
-        <v>0.996</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A496" s="2">
-        <v>45908</v>
-      </c>
-      <c r="B496" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A497" s="2">
-        <v>45938</v>
-      </c>
-      <c r="B497" s="3">
-        <v>0.91900000000000004</v>
-      </c>
-    </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A498" s="2">
-        <v>45969</v>
-      </c>
-      <c r="B498" s="3">
-        <v>0.999</v>
-      </c>
-    </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A499" s="2">
-        <v>45999</v>
-      </c>
-      <c r="B499" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A500" s="2">
-        <v>45666</v>
-      </c>
-      <c r="B500" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A501" s="2">
-        <v>45697</v>
-      </c>
-      <c r="B501" s="3">
-        <v>0.999</v>
-      </c>
-    </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A502" s="2">
-        <v>45725</v>
-      </c>
-      <c r="B502" s="3">
-        <v>0.999</v>
-      </c>
-    </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A503" s="2">
-        <v>45756</v>
-      </c>
-      <c r="B503" s="3">
-        <v>0.97399999999999998</v>
-      </c>
-    </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A504" s="2">
-        <v>45786</v>
-      </c>
-      <c r="B504" s="3">
-        <v>0.89700000000000002</v>
-      </c>
-    </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A505" s="2">
-        <v>45817</v>
-      </c>
-      <c r="B505" s="3">
-        <v>0.68200000000000005</v>
-      </c>
-    </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A506" s="2">
-        <v>45847</v>
-      </c>
-      <c r="B506" s="3">
-        <v>3.4000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A507" s="2">
-        <v>45878</v>
-      </c>
-      <c r="B507" s="3">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A508" s="2">
-        <v>45909</v>
-      </c>
-      <c r="B508" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A509" s="2">
-        <v>45939</v>
-      </c>
-      <c r="B509" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A510" s="2">
-        <v>45970</v>
-      </c>
-      <c r="B510" s="3">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A511" s="2">
-        <v>46000</v>
-      </c>
-      <c r="B511" s="3">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A512" s="2">
-        <v>45667</v>
-      </c>
-      <c r="B512" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A513" s="2">
-        <v>45698</v>
-      </c>
-      <c r="B513" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A514" s="2">
-        <v>45726</v>
-      </c>
-      <c r="B514" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A515" s="2">
-        <v>45757</v>
-      </c>
-      <c r="B515" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A516" s="2">
-        <v>45787</v>
-      </c>
-      <c r="B516" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A517" s="2">
-        <v>45818</v>
-      </c>
-      <c r="B517" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A518" s="2">
-        <v>45848</v>
-      </c>
-      <c r="B518" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A519" s="2">
-        <v>45879</v>
-      </c>
-      <c r="B519" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A520" s="2">
-        <v>45910</v>
-      </c>
-      <c r="B520" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A521" s="2">
-        <v>45940</v>
-      </c>
-      <c r="B521" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A522" s="2">
-        <v>45971</v>
-      </c>
-      <c r="B522" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A523" s="2">
-        <v>46001</v>
-      </c>
-      <c r="B523" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A524" s="2">
-        <v>45668</v>
-      </c>
-      <c r="B524" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A525" s="2">
-        <v>45699</v>
-      </c>
-      <c r="B525" s="3">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A526" s="2">
-        <v>45727</v>
-      </c>
-      <c r="B526" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A527" s="2">
-        <v>45758</v>
-      </c>
-      <c r="B527" s="3">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A528" s="2">
-        <v>45788</v>
-      </c>
-      <c r="B528" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A529" s="2">
-        <v>45819</v>
-      </c>
-      <c r="B529" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A530" s="2">
-        <v>45849</v>
-      </c>
-      <c r="B530" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A531" s="2">
-        <v>45880</v>
-      </c>
-      <c r="B531" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A532" s="2">
-        <v>45911</v>
-      </c>
-      <c r="B532" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A533" s="2">
-        <v>45941</v>
-      </c>
-      <c r="B533" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A534" s="2">
-        <v>45972</v>
-      </c>
-      <c r="B534" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A535" s="2">
-        <v>46002</v>
-      </c>
-      <c r="B535" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A536" s="2">
-        <v>45669</v>
-      </c>
-      <c r="B536" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A537" s="2">
-        <v>45700</v>
-      </c>
-      <c r="B537" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A538" s="2">
-        <v>45728</v>
-      </c>
-      <c r="B538" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A539" s="2">
-        <v>45759</v>
-      </c>
-      <c r="B539" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A540" s="2">
-        <v>45789</v>
-      </c>
-      <c r="B540" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A541" s="2">
-        <v>45820</v>
-      </c>
-      <c r="B541" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A542" s="2">
-        <v>45850</v>
-      </c>
-      <c r="B542" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A543" s="2">
-        <v>45881</v>
-      </c>
-      <c r="B543" s="3">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A544" s="2">
-        <v>45912</v>
-      </c>
-      <c r="B544" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A545" s="2">
-        <v>45942</v>
-      </c>
-      <c r="B545" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A546" s="2">
-        <v>45973</v>
-      </c>
-      <c r="B546" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A547" s="2">
-        <v>46003</v>
-      </c>
-      <c r="B547" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A548" s="2">
-        <v>45670</v>
-      </c>
-      <c r="B548" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A549" s="2">
-        <v>45701</v>
-      </c>
-      <c r="B549" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A550" s="2">
-        <v>45729</v>
-      </c>
-      <c r="B550" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A551" s="2">
-        <v>45760</v>
-      </c>
-      <c r="B551" s="3">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A552" s="2">
-        <v>45790</v>
-      </c>
-      <c r="B552" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A553" s="2">
-        <v>45821</v>
-      </c>
-      <c r="B553" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A554" s="2">
-        <v>45851</v>
-      </c>
-      <c r="B554" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A555" s="2">
-        <v>45882</v>
-      </c>
-      <c r="B555" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A556" s="2">
-        <v>45913</v>
-      </c>
-      <c r="B556" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A557" s="2">
-        <v>45943</v>
-      </c>
-      <c r="B557" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A558" s="2">
-        <v>45974</v>
-      </c>
-      <c r="B558" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A559" s="2">
-        <v>46004</v>
-      </c>
-      <c r="B559" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A560" s="2">
-        <v>45671</v>
-      </c>
-      <c r="B560" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A561" s="2">
-        <v>45702</v>
-      </c>
-      <c r="B561" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A562" s="2">
-        <v>45730</v>
-      </c>
-      <c r="B562" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A563" s="2">
-        <v>45761</v>
-      </c>
-      <c r="B563" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A564" s="2">
-        <v>45791</v>
-      </c>
-      <c r="B564" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A565" s="2">
-        <v>45822</v>
-      </c>
-      <c r="B565" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A566" s="2">
-        <v>45852</v>
-      </c>
-      <c r="B566" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A567" s="2">
-        <v>45883</v>
-      </c>
-      <c r="B567" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A568" s="2">
-        <v>45914</v>
-      </c>
-      <c r="B568" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A569" s="2">
-        <v>45944</v>
-      </c>
-      <c r="B569" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A570" s="2">
-        <v>45975</v>
-      </c>
-      <c r="B570" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A571" s="2">
-        <v>46005</v>
-      </c>
-      <c r="B571" s="3">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A572" s="2">
-        <v>45672</v>
-      </c>
-      <c r="B572" s="3">
-        <v>8.9999999999999993E-3</v>
-      </c>
-    </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A573" s="2">
-        <v>45703</v>
-      </c>
-      <c r="B573" s="3">
-        <v>1.4E-2</v>
-      </c>
-    </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A574" s="2">
-        <v>45731</v>
-      </c>
-      <c r="B574" s="3">
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A575" s="2">
-        <v>45762</v>
-      </c>
-      <c r="B575" s="3">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A576" s="2">
-        <v>45792</v>
-      </c>
-      <c r="B576" s="3">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A577" s="2">
-        <v>45823</v>
-      </c>
-      <c r="B577" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A578" s="2">
-        <v>45853</v>
-      </c>
-      <c r="B578" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A579" s="2">
-        <v>45884</v>
-      </c>
-      <c r="B579" s="3">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A580" s="2">
-        <v>45915</v>
-      </c>
-      <c r="B580" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A581" s="2">
-        <v>45945</v>
-      </c>
-      <c r="B581" s="3">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A582" s="2">
-        <v>45976</v>
-      </c>
-      <c r="B582" s="3">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A583" s="2">
-        <v>46006</v>
-      </c>
-      <c r="B583" s="3">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A584" s="2">
-        <v>45673</v>
-      </c>
-      <c r="B584" s="3">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A585" s="2">
-        <v>45704</v>
-      </c>
-      <c r="B585" s="3">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A586" s="2">
-        <v>45732</v>
-      </c>
-      <c r="B586" s="3">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A587" s="2">
-        <v>45763</v>
-      </c>
-      <c r="B587" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A588" s="2">
-        <v>45793</v>
-      </c>
-      <c r="B588" s="3">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A589" s="2">
-        <v>45824</v>
-      </c>
-      <c r="B589" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A590" s="2">
-        <v>45854</v>
-      </c>
-      <c r="B590" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A591" s="2">
-        <v>45885</v>
-      </c>
-      <c r="B591" s="3">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A592" s="2">
-        <v>45916</v>
-      </c>
-      <c r="B592" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A593" s="2">
-        <v>45946</v>
-      </c>
-      <c r="B593" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A594" s="2">
-        <v>45977</v>
-      </c>
-      <c r="B594" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A595" s="2">
-        <v>46007</v>
-      </c>
-      <c r="B595" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A596" s="2">
-        <v>45674</v>
-      </c>
-      <c r="B596" s="3">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A597" s="2">
-        <v>45705</v>
-      </c>
-      <c r="B597" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A598" s="2">
-        <v>45733</v>
-      </c>
-      <c r="B598" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A599" s="2">
-        <v>45764</v>
-      </c>
-      <c r="B599" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A600" s="2">
-        <v>45794</v>
-      </c>
-      <c r="B600" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A601" s="2">
-        <v>45825</v>
-      </c>
-      <c r="B601" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A602" s="2">
-        <v>45855</v>
-      </c>
-      <c r="B602" s="3">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A603" s="2">
-        <v>45886</v>
-      </c>
-      <c r="B603" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A604" s="2">
-        <v>45917</v>
-      </c>
-      <c r="B604" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A605" s="2">
-        <v>45947</v>
-      </c>
-      <c r="B605" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A606" s="2">
-        <v>45978</v>
-      </c>
-      <c r="B606" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A607" s="2">
-        <v>46008</v>
-      </c>
-      <c r="B607" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A608" s="2">
-        <v>45675</v>
-      </c>
-      <c r="B608" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A609" s="2">
-        <v>45706</v>
-      </c>
-      <c r="B609" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A610" s="2">
-        <v>45734</v>
-      </c>
-      <c r="B610" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A611" s="2">
-        <v>45765</v>
-      </c>
-      <c r="B611" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A612" s="2">
-        <v>45795</v>
-      </c>
-      <c r="B612" s="3">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A613" s="2">
-        <v>45826</v>
-      </c>
-      <c r="B613" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A614" s="2">
-        <v>45856</v>
-      </c>
-      <c r="B614" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A615" s="2">
-        <v>45887</v>
-      </c>
-      <c r="B615" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A616" s="2">
-        <v>45918</v>
-      </c>
-      <c r="B616" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A617" s="2">
-        <v>45948</v>
-      </c>
-      <c r="B617" s="3">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A618" s="2">
-        <v>45979</v>
-      </c>
-      <c r="B618" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A619" s="2">
-        <v>46009</v>
-      </c>
-      <c r="B619" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A620" s="2">
-        <v>45676</v>
-      </c>
-      <c r="B620" s="3">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A621" s="2">
-        <v>45707</v>
-      </c>
-      <c r="B621" s="3">
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A622" s="2">
-        <v>45735</v>
-      </c>
-      <c r="B622" s="3">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A623" s="2">
-        <v>45766</v>
-      </c>
-      <c r="B623" s="3">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A624" s="2">
-        <v>45796</v>
-      </c>
-      <c r="B624" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A625" s="2">
-        <v>45827</v>
-      </c>
-      <c r="B625" s="3">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A626" s="2">
-        <v>45857</v>
-      </c>
-      <c r="B626" s="3">
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A627" s="2">
-        <v>45888</v>
-      </c>
-      <c r="B627" s="3">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A628" s="2">
-        <v>45919</v>
-      </c>
-      <c r="B628" s="3">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A629" s="2">
-        <v>45949</v>
-      </c>
-      <c r="B629" s="3">
-        <v>1.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A630" s="2">
-        <v>45980</v>
-      </c>
-      <c r="B630" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A631" s="2">
-        <v>46010</v>
-      </c>
-      <c r="B631" s="3">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A632" s="2">
-        <v>45677</v>
-      </c>
-      <c r="B632" s="3">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A633" s="2">
-        <v>45708</v>
-      </c>
-      <c r="B633" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A634" s="2">
-        <v>45736</v>
-      </c>
-      <c r="B634" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A635" s="2">
-        <v>45767</v>
-      </c>
-      <c r="B635" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A636" s="2">
-        <v>45797</v>
-      </c>
-      <c r="B636" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A637" s="2">
-        <v>45828</v>
-      </c>
-      <c r="B637" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A638" s="2">
-        <v>45858</v>
-      </c>
-      <c r="B638" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A639" s="2">
-        <v>45889</v>
-      </c>
-      <c r="B639" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A640" s="2">
-        <v>45920</v>
-      </c>
-      <c r="B640" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A641" s="2">
-        <v>45950</v>
-      </c>
-      <c r="B641" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A642" s="2">
-        <v>45981</v>
-      </c>
-      <c r="B642" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A643" s="2">
-        <v>46011</v>
-      </c>
-      <c r="B643" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A644" s="2">
-        <v>45678</v>
-      </c>
-      <c r="B644" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A645" s="2">
-        <v>45709</v>
-      </c>
-      <c r="B645" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A646" s="2">
-        <v>45737</v>
-      </c>
-      <c r="B646" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A647" s="2">
-        <v>45768</v>
-      </c>
-      <c r="B647" s="3">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A648" s="2">
-        <v>45798</v>
-      </c>
-      <c r="B648" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A649" s="2">
-        <v>45829</v>
-      </c>
-      <c r="B649" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A650" s="2">
-        <v>45859</v>
-      </c>
-      <c r="B650" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A651" s="2">
-        <v>45890</v>
-      </c>
-      <c r="B651" s="3">
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A652" s="2">
-        <v>45921</v>
-      </c>
-      <c r="B652" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A653" s="2">
-        <v>45951</v>
-      </c>
-      <c r="B653" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A654" s="2">
-        <v>45982</v>
-      </c>
-      <c r="B654" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A655" s="2">
-        <v>46012</v>
-      </c>
-      <c r="B655" s="3">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A656" s="2">
-        <v>45679</v>
-      </c>
-      <c r="B656" s="3">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A657" s="2">
-        <v>45710</v>
-      </c>
-      <c r="B657" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A658" s="2">
-        <v>45738</v>
-      </c>
-      <c r="B658" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A659" s="2">
-        <v>45769</v>
-      </c>
-      <c r="B659" s="3">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A660" s="2">
-        <v>45799</v>
-      </c>
-      <c r="B660" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A661" s="2">
-        <v>45830</v>
-      </c>
-      <c r="B661" s="3">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A662" s="2">
-        <v>45860</v>
-      </c>
-      <c r="B662" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A663" s="2">
-        <v>45891</v>
-      </c>
-      <c r="B663" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A664" s="2">
-        <v>45922</v>
-      </c>
-      <c r="B664" s="3">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A665" s="2">
-        <v>45952</v>
-      </c>
-      <c r="B665" s="3">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A666" s="2">
-        <v>45983</v>
-      </c>
-      <c r="B666" s="3">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A667" s="2">
-        <v>46013</v>
-      </c>
-      <c r="B667" s="3">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A668" s="2">
-        <v>45680</v>
-      </c>
-      <c r="B668" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A669" s="2">
-        <v>45711</v>
-      </c>
-      <c r="B669" s="3">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A670" s="2">
-        <v>45739</v>
-      </c>
-      <c r="B670" s="3">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A671" s="2">
-        <v>45770</v>
-      </c>
-      <c r="B671" s="3">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A672" s="2">
-        <v>45800</v>
-      </c>
-      <c r="B672" s="3">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A673" s="2">
-        <v>45831</v>
-      </c>
-      <c r="B673" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A674" s="2">
-        <v>45861</v>
-      </c>
-      <c r="B674" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A675" s="2">
-        <v>45892</v>
-      </c>
-      <c r="B675" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A676" s="2">
-        <v>45923</v>
-      </c>
-      <c r="B676" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A677" s="2">
-        <v>45953</v>
-      </c>
-      <c r="B677" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A678" s="2">
-        <v>45984</v>
-      </c>
-      <c r="B678" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A679" s="2">
-        <v>46014</v>
-      </c>
-      <c r="B679" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A680" s="2">
-        <v>45681</v>
-      </c>
-      <c r="B680" s="3">
-        <v>8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A681" s="2">
-        <v>45712</v>
-      </c>
-      <c r="B681" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A682" s="2">
-        <v>45740</v>
-      </c>
-      <c r="B682" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A683" s="2">
-        <v>45771</v>
-      </c>
-      <c r="B683" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A684" s="2">
-        <v>45801</v>
-      </c>
-      <c r="B684" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A685" s="2">
-        <v>45832</v>
-      </c>
-      <c r="B685" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A686" s="2">
-        <v>45862</v>
-      </c>
-      <c r="B686" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A687" s="2">
-        <v>45893</v>
-      </c>
-      <c r="B687" s="3">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A688" s="2">
-        <v>45924</v>
-      </c>
-      <c r="B688" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A689" s="2">
-        <v>45954</v>
-      </c>
-      <c r="B689" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A690" s="2">
-        <v>45985</v>
-      </c>
-      <c r="B690" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A691" s="2">
-        <v>46015</v>
-      </c>
-      <c r="B691" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A692" s="2">
-        <v>45682</v>
-      </c>
-      <c r="B692" s="3">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A693" s="2">
-        <v>45713</v>
-      </c>
-      <c r="B693" s="3">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A694" s="2">
-        <v>45741</v>
-      </c>
-      <c r="B694" s="3">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A695" s="2">
-        <v>45772</v>
-      </c>
-      <c r="B695" s="3">
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A696" s="2">
-        <v>45802</v>
-      </c>
-      <c r="B696" s="3">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A697" s="2">
-        <v>45833</v>
-      </c>
-      <c r="B697" s="3">
+      <c r="B697" s="2">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
